--- a/5_TuningPrompting/input_data.xlsx
+++ b/5_TuningPrompting/input_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>SELECT character, content, audio, robot_user_conversation_id, created_at FROm robot_user_conversation_record_history
 WHERE created_at &gt;='2024-12-10'
@@ -31,16 +31,16 @@
     <t>user_input</t>
   </si>
   <si>
-    <t>conversation_history</t>
-  </si>
-  <si>
     <t>system_prompt</t>
   </si>
   <si>
+    <t>assistant_response</t>
+  </si>
+  <si>
     <t>Happy Case - Simple Sentence</t>
   </si>
   <si>
-    <t>"The movie was very interesting."</t>
+    <t>The movie was very interesting.</t>
   </si>
   <si>
     <t>You are a **Paraphrase Content Extractor**.  
@@ -72,88 +72,412 @@
 }</t>
   </si>
   <si>
+    <t>```json
+{
+    "english_sentence_inputed": "The movie was very interesting.",
+    "words_en": [
+      { "word": "The", "highlight_index": null },
+      { "word": "movie", "highlight_index": 1 },
+      { "word": "was", "highlight_index": null },
+      { "word": "very", "highlight_index": 2 },
+      { "word": "interesting", "highlight_index": 3 }
+    ],
+    "vi_translated": "Bộ phim rất thú vị.",
+    "words_vi": [
+      { "word": "Bộ phim", "highlight_index": 1 },
+      { "word": "rất", "highlight_index": 2 },
+      { "word": "thú vị", "highlight_index": 3 }
+    ]
+}
+```</t>
+  </si>
+  <si>
     <t>Happy Case - Adverb Emphasis</t>
   </si>
   <si>
-    <t>"She runs incredibly fast."</t>
+    <t>She runs incredibly fast.</t>
+  </si>
+  <si>
+    <t>```json
+{
+    "english_sentence_inputed": "She runs incredibly fast.",
+    "words_en": [
+      { "word": "She", "highlight_index": null },
+      { "word": "runs", "highlight_index": 1 },
+      { "word": "incredibly", "highlight_index": 2 },
+      { "word": "fast", "highlight_index": 3 }
+    ],
+    "vi_translated": "Cô ấy chạy cực kỳ nhanh.",
+    "words_vi": [
+      { "word": "Cô ấy", "highlight_index": null },
+      { "word": "chạy", "highlight_index": 1 },
+      { "word": "cực kỳ", "highlight_index": 2 },
+      { "word": "nhanh", "highlight_index": 3 }
+    ]
+}
+```</t>
   </si>
   <si>
     <t>Happy Case - Complex Sentence</t>
   </si>
   <si>
-    <t>"The smart boy completed the challenging task very quickly."</t>
+    <t>The smart boy completed the challenging task very quickly.</t>
+  </si>
+  <si>
+    <t>```json
+{
+    "english_sentence_inputed": "The smart boy completed the challenging task very quickly.",
+    "words_en": [
+      { "word": "The", "highlight_index": null },
+      { "word": "smart", "highlight_index": 1 },
+      { "word": "boy", "highlight_index": 2 },
+      { "word": "completed", "highlight_index": 3 },
+      { "word": "the", "highlight_index": null },
+      { "word": "challenging", "highlight_index": 4 },
+      { "word": "task", "highlight_index": 5 },
+      { "word": "very", "highlight_index": 6 },
+      { "word": "quickly", "highlight_index": 7 }
+    ],
+    "vi_translated": "Cậu bé thông minh đã hoàn thành nhiệm vụ đầy thách thức rất nhanh chóng.",
+    "words_vi": [
+      { "word": "Cậu bé", "highlight_index": 2 },
+      { "word": "thông minh", "highlight_index": 1 },
+      { "word": "đã", "highlight_index": null },
+      { "word": "hoàn thành", "highlight_index": 3 },
+      { "word": "nhiệm vụ", "highlight_index": 5 },
+      { "word": "đầy thách thức", "highlight_index": 4 },
+      { "word": "rất", "highlight_index": 6 },
+      { "word": "nhanh chóng", "highlight_index": 7 }
+    ]
+}
+```</t>
   </si>
   <si>
     <t>Happy Case - Phrasal Verb</t>
   </si>
   <si>
-    <t>"He gave up his seat to an elderly person."</t>
+    <t>He gave up his seat to an elderly person.</t>
+  </si>
+  <si>
+    <t>```json
+{
+    "english_sentence_inputed": "He gave up his seat to an elderly person.",
+    "words_en": [
+      { "word": "He", "highlight_index": null },
+      { "word": "gave", "highlight_index": 1 },
+      { "word": "up", "highlight_index": null },
+      { "word": "his", "highlight_index": null },
+      { "word": "seat", "highlight_index": 2 },
+      { "word": "to", "highlight_index": null },
+      { "word": "an", "highlight_index": null },
+      { "word": "elderly", "highlight_index": 3 },
+      { "word": "person", "highlight_index": 4 }
+    ],
+    "vi_translated": "Ông đã nhường chỗ ngồi của mình cho một người cao tuổi.",
+    "words_vi": [
+      { "word": "Ông", "highlight_index": null },
+      { "word": "đã", "highlight_index": null },
+      { "word": "nhường", "highlight_index": 1 },
+      { "word": "chỗ ngồi", "highlight_index": 2 },
+      { "word": "của", "highlight_index": null },
+      { "word": "mình", "highlight_index": null },
+      { "word": "cho", "highlight_index": null },
+      { "word": "một", "highlight_index": null },
+      { "word": "người cao tuổi", "highlight_index": 3 }
+    ]
+}
+```</t>
   </si>
   <si>
     <t>Happy Case - Multiple Adjectives</t>
   </si>
   <si>
-    <t>"The tall, handsome man was very confident."</t>
+    <t>The tall, handsome man was very confident.</t>
+  </si>
+  <si>
+    <t>```json
+{
+    "english_sentence_inputed": "The tall, handsome man was very confident.",
+    "words_en": [
+      { "word": "The", "highlight_index": null },
+      { "word": "tall", "highlight_index": 1 },
+      { "word": "handsome", "highlight_index": 2 },
+      { "word": "man", "highlight_index": 3 },
+      { "word": "was", "highlight_index": null },
+      { "word": "very", "highlight_index": 4 },
+      { "word": "confident", "highlight_index": 5 }
+    ],
+    "vi_translated": "Người đàn ông cao và đẹp trai rất tự tin.",
+    "words_vi": [
+      { "word": "Người", "highlight_index": null },
+      { "word": "đàn", "highlight_index": null },
+      { "word": "ông", "highlight_index": 3 },
+      { "word": "cao", "highlight_index": 1 },
+      { "word": "và", "highlight_index": null },
+      { "word": "đẹp", "highlight_index": 2 },
+      { "word": "trai", "highlight_index": null },
+      { "word": "rất", "highlight_index": 4 },
+      { "word": "tự", "highlight_index": null },
+      { "word": "tin", "highlight_index": 5 }
+    ]
+}
+```</t>
   </si>
   <si>
     <t>Happy Case - Questions</t>
   </si>
   <si>
-    <t>"Why is this book so important?"</t>
+    <t>Why is this book so important?</t>
+  </si>
+  <si>
+    <t>```json
+{
+    "english_sentence_inputed": "Why is this book so important?",
+    "words_en": [
+      { "word": "Why", "highlight_index": null },
+      { "word": "is", "highlight_index": null },
+      { "word": "this", "highlight_index": null },
+      { "word": "book", "highlight_index": 1 },
+      { "word": "so", "highlight_index": 2 },
+      { "word": "important", "highlight_index": 3 }
+    ],
+    "vi_translated": "Tại sao cuốn sách này lại quan trọng như vậy?",
+    "words_vi": [
+      { "word": "Tại sao", "highlight_index": null },
+      { "word": "cuốn sách", "highlight_index": 1 },
+      { "word": "này", "highlight_index": null },
+      { "word": "lại", "highlight_index": null },
+      { "word": "quan trọng", "highlight_index": 3 },
+      { "word": "như vậy", "highlight_index": 2 }
+    ]
+}
+```</t>
   </si>
   <si>
     <t>Happy Case - Negation</t>
   </si>
   <si>
-    <t>"He didn’t enjoy the boring lecture."</t>
+    <t>He didn’t enjoy the boring lecture.</t>
+  </si>
+  <si>
+    <t>```json
+{
+    "english_sentence_inputed": "He didn’t enjoy the boring lecture.",
+    "words_en": [
+      { "word": "He", "highlight_index": null },
+      { "word": "didn’t", "highlight_index": null },
+      { "word": "enjoy", "highlight_index": 1 },
+      { "word": "the", "highlight_index": null },
+      { "word": "boring", "highlight_index": 2 },
+      { "word": "lecture", "highlight_index": 3 }
+    ],
+    "vi_translated": "Anh ấy không thích bài giảng nhàm chán.",
+    "words_vi": [
+      { "word": "Anh ấy", "highlight_index": null },
+      { "word": "không", "highlight_index": null },
+      { "word": "thích", "highlight_index": 1 },
+      { "word": "bài giảng", "highlight_index": 3 },
+      { "word": "nhàm chán", "highlight_index": 2 }
+    ]
+}
+```</t>
   </si>
   <si>
     <t>Happy Case - Idiomatic Phrase</t>
   </si>
   <si>
-    <t>"They hit the nail on the head with their plan."</t>
+    <t>They hit the nail on the head with their plan.</t>
+  </si>
+  <si>
+    <t>```json
+{
+    "english_sentence_inputed": "They hit the nail on the head with their plan.",
+    "words_en": [
+        { "word": "They", "highlight_index": null },
+        { "word": "hit", "highlight_index": 1 },
+        { "word": "the", "highlight_index": null },
+        { "word": "nail", "highlight_index": 2 },
+        { "word": "on", "highlight_index": null },
+        { "word": "the", "highlight_index": null },
+        { "word": "head", "highlight_index": 3 },
+        { "word": "with", "highlight_index": null },
+        { "word": "their", "highlight_index": null },
+        { "word": "plan", "highlight_index": 4 }
+    ],
+    "vi_translated": "Họ đã đánh trúng vấn đề với kế hoạch của họ.",
+    "words_vi": [
+        { "word": "Họ", "highlight_index": null },
+        { "word": "đánh", "highlight_index": 1 },
+        { "word": "trúng", "highlight_index": 2 },
+        { "word": "vấn đề", "highlight_index": 3 },
+        { "word": "với", "highlight_index": null },
+        { "word": "kế hoạch", "highlight_index": 4 },
+        { "word": "của", "highlight_index": null },
+        { "word": "họ", "highlight_index": null }
+    ]
+}
+```</t>
   </si>
   <si>
     <t>Unhappy Case - Empty Input</t>
   </si>
   <si>
-    <t>""</t>
+    <t>```json
+{
+    "english_sentence_inputed": "",
+    "words_en": [],
+    "vi_translated": "",
+    "words_vi": []
+}
+```</t>
   </si>
   <si>
     <t>Unhappy Case - One Word</t>
   </si>
   <si>
-    <t>"Amazing."</t>
+    <t>Amazing.</t>
+  </si>
+  <si>
+    <t>```json
+{
+    "english_sentence_inputed": "Amazing.",
+    "words_en": [
+      { "word": "Amazing", "highlight_index": 1 }
+    ],
+    "vi_translated": "Tuyệt vời.",
+    "words_vi": [
+      { "word": "Tuyệt vời", "highlight_index": 1 }
+    ]
+}
+```</t>
   </si>
   <si>
     <t>Unhappy Case - Non-English</t>
   </si>
   <si>
-    <t>"Cô ấy rất xinh đẹp."</t>
-  </si>
-  <si>
-    <t>Unhappy Case - Symbols Only</t>
-  </si>
-  <si>
-    <t>"@#$%^&amp;*"</t>
+    <t>Cô ấy rất xinh đẹp.</t>
+  </si>
+  <si>
+    <t>```json
+{
+    "english_sentence_inputed": "She is very beautiful.",
+    "words_en": [
+      { "word": "She", "highlight_index": null },
+      { "word": "is", "highlight_index": null },
+      { "word": "very", "highlight_index": 1 },
+      { "word": "beautiful", "highlight_index": 2 }
+    ],
+    "vi_translated": "Cô ấy rất xinh đẹp.",
+    "words_vi": [
+      { "word": "Cô ấy", "highlight_index": null },
+      { "word": "rất", "highlight_index": 1 },
+      { "word": "xinh đẹp", "highlight_index": 2 }
+    ]
+}
+```</t>
   </si>
   <si>
     <t>Unhappy Case - Numbers Only</t>
   </si>
   <si>
-    <t>"1234567890"</t>
+    <t>```json
+{
+    "english_sentence_inputed": "1234567890",
+    "words_en": [
+      { "word": "1234567890", "highlight_index": 1 }
+    ],
+    "vi_translated": "1234567890",
+    "words_vi": [
+      { "word": "1234567890", "highlight_index": 1 }
+    ]
+}
+```</t>
   </si>
   <si>
     <t>Unhappy Case - Mixed Content</t>
   </si>
   <si>
-    <t>"Wow! This 12345 example has numbers and symbols @#!."</t>
+    <t>Wow! This 12345 example has numbers and symbols @#!.</t>
+  </si>
+  <si>
+    <t>```json
+{
+    "english_sentence_inputed": "Wow! This 12345 example has numbers and symbols @#!.",
+    "words_en": [
+      { "word": "Wow", "highlight_index": 1 },
+      { "word": "This", "highlight_index": null },
+      { "word": "12345", "highlight_index": 2 },
+      { "word": "example", "highlight_index": 3 },
+      { "word": "has", "highlight_index": null },
+      { "word": "numbers", "highlight_index": 4 },
+      { "word": "and", "highlight_index": null },
+      { "word": "symbols", "highlight_index": 5 },
+      { "word": "@#!", "highlight_index": null }
+    ],
+    "vi_translated": "Wow! Ví dụ 12345 này có số và ký hiệu @#!.",
+    "words_vi": [
+      { "word": "Wow", "highlight_index": 1 },
+      { "word": "Ví dụ", "highlight_index": 2 },
+      { "word": "này", "highlight_index": null },
+      { "word": "có", "highlight_index": null },
+      { "word": "số", "highlight_index": 4 },
+      { "word": "và", "highlight_index": null },
+      { "word": "ký hiệu", "highlight_index": 5 },
+      { "word": "@#!", "highlight_index": null }
+    ]
+}
+```</t>
   </si>
   <si>
     <t>Unhappy Case - Run-on Sentence</t>
   </si>
   <si>
-    <t>"The girl who was wearing a red dress sang beautifully but everyone was distracted by the barking dog."</t>
+    <t>The girl who was wearing a red dress sang beautifully but everyone was distracted by the barking dog.</t>
+  </si>
+  <si>
+    <t>```json
+{
+    "english_sentence_inputed": "The girl who was wearing a red dress sang beautifully but everyone was distracted by the barking dog.",
+    "words_en": [
+        { "word": "The", "highlight_index": null },
+        { "word": "girl", "highlight_index": 1 },
+        { "word": "who", "highlight_index": null },
+        { "word": "was", "highlight_index": null },
+        { "word": "wearing", "highlight_index": 2 },
+        { "word": "a", "highlight_index": null },
+        { "word": "red", "highlight_index": 3 },
+        { "word": "dress", "highlight_index": 4 },
+        { "word": "sang", "highlight_index": 5 },
+        { "word": "beautifully", "highlight_index": 6 },
+        { "word": "but", "highlight_index": null },
+        { "word": "everyone", "highlight_index": 7 },
+        { "word": "was", "highlight_index": null },
+        { "word": "distracted", "highlight_index": 8 },
+        { "word": "by", "highlight_index": null },
+        { "word": "the", "highlight_index": null },
+        { "word": "barking", "highlight_index": 9 },
+        { "word": "dog", "highlight_index": 10 }
+    ],
+    "vi_translated": "Cô gái đang mặc một chiếc váy đỏ đã hát một cách tuyệt vời nhưng mọi người đã bị phân tâm bởi con chó đang sủa.",
+    "words_vi": [
+        { "word": "Cô gái", "highlight_index": 1 },
+        { "word": "đang", "highlight_index": null },
+        { "word": "mặc", "highlight_index": 2 },
+        { "word": "một chiếc váy đỏ", "highlight_index": 3 },
+        { "word": "đã", "highlight_index": null },
+        { "word": "hát", "highlight_index": 5 },
+        { "word": "một cách tuyệt vời", "highlight_index": 6 },
+        { "word": "nhưng", "highlight_index": null },
+        { "word": "mọi người", "highlight_index": 7 },
+        { "word": "đã", "highlight_index": null },
+        { "word": "bị phân tâm", "highlight_index": 8 },
+        { "word": "bởi", "highlight_index": null },
+        { "word": "con chó đang sủa", "highlight_index": 9 },
+        { "word": "đang", "highlight_index": null },
+        { "word": "sủa", "highlight_index": null }
+    ]
+}
+```</t>
   </si>
 </sst>
 </file>
@@ -161,7 +485,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,12 +505,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -196,7 +514,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -211,41 +529,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFcccccc"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFcccccc"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFcccccc"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFcccccc"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFcccccc"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFcccccc"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFcccccc"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -259,31 +547,40 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -588,17 +885,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="26.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="26.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="13" width="26.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="13" width="26.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="14" width="26.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="26.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="26.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="15" width="26.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75" customFormat="1" s="4">
@@ -608,240 +906,274 @@
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="618.75" customFormat="1" s="4">
-      <c r="A2" s="9">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="337.5" customFormat="1" s="4">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="618.75" customFormat="1" s="4">
-      <c r="A3" s="9">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="1636.5" customFormat="1" s="4">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="506.25" customFormat="1" s="4">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="525" customFormat="1" s="4">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="506.25" customFormat="1" s="4">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="412.5" customFormat="1" s="4">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="393.75" customFormat="1" s="4">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="525" customFormat="1" s="4">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="150" customFormat="1" s="4">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="B10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="225" customFormat="1" s="4">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
+      <c r="B11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="618.75" customFormat="1" s="4">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="318.75" customFormat="1" s="4">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="B12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="225" customFormat="1" s="4">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7" t="s">
+      <c r="B13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1234567890</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="618.75" customFormat="1" s="4">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="506.25" customFormat="1" s="4">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="B14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="806.25" customFormat="1" s="4">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
+      <c r="B15" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="618.75" customFormat="1" s="4">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="877.5" customFormat="1" s="4">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="877.5" customFormat="1" s="4">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="618.75" customFormat="1" s="4">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="618.75" customFormat="1" s="4">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="618.75" customFormat="1" s="4">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="618.75" customFormat="1" s="4">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="618.75" customFormat="1" s="4">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="618.75" customFormat="1" s="4">
-      <c r="A14" s="9">
-        <v>13</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="618.75" customFormat="1" s="4">
-      <c r="A15" s="9">
-        <v>14</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="s">
-        <v>8</v>
+      <c r="E15" s="12"/>
+      <c r="F15" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="618.75" customFormat="1" s="4">
-      <c r="A16" s="9">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="A16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5_TuningPrompting/input_data.xlsx
+++ b/5_TuningPrompting/input_data.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Hanoi University of Science and Technology\GIT\BasicTasks_Prompting\5_TuningPrompting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75FE9D1-5261-4B6B-99C2-DE6DB3E2060C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="TestingPromptOnDataset"/>
-    <sheet r:id="rId2" sheetId="2" name="Query"/>
+    <sheet name="TestingPromptOnDataset" sheetId="1" r:id="rId1"/>
+    <sheet name="Query" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>SELECT character, content, audio, robot_user_conversation_id, created_at FROm robot_user_conversation_record_history
 WHERE created_at &gt;='2024-12-10'
@@ -34,302 +40,198 @@
     <t>system_prompt</t>
   </si>
   <si>
-    <t>assistant_response</t>
-  </si>
-  <si>
-    <t>Happy Case - Simple Sentence</t>
-  </si>
-  <si>
-    <t>The movie was very interesting.</t>
-  </si>
-  <si>
-    <t>You are a **Paraphrase Content Extractor**.  
-You will be given:  
-- An input sentence (10-15 words) in English.  
-INSTRUCTION: 
-1. **words_en**:  
-   - **List all words** from the input sentence in the order they appear.  
-   - Identify **CONTENT WORDS** (nouns, verbs, adjectives, adverbs, and other meaningful words):  
-     + Assign `highlight_index` sequentially from **1** to the total number of content words.  
-     + Mark **non-content words** (e.g., articles, prepositions, auxiliary verbs) with `highlight_index: null`.  
-2. **words_vi**:  
-   - After translating the full sentence:  
-     + Map phrases in Vietnamese to their corresponding English content words based on `highlight_index`.  
-     + Ensure corresponding phrases in Vietnamese retain the same `highlight_index` as in English.  
-     + For any unmapped Vietnamese words, assign `highlight_index: null`.  
-============  
-**JSON TEMPLATE:**  
-```json
-{
-    "english_sentence_inputed": "&lt;input sentence in English&gt;",
-    "words_en": [
-      { "word": "&lt;word in English&gt;", "highlight_index": &lt;rank or null&gt; }
-    ],
-    "vi_translated": "&lt;Translate the **ENTIRE INPUT ENGLISH SENTENCE** into Vietnamese FIRST&gt;",
-    "words_vi": [
-      { "word": "&lt;word/phrase in Vietnamese&gt;", "highlight_index": &lt;rank or null&gt; }
-    ]
+    <t>Unhappy Case - Empty Input</t>
+  </si>
+  <si>
+    <t>Unhappy Case - Numbers Only</t>
+  </si>
+  <si>
+    <t>conversation_history</t>
+  </si>
+  <si>
+    <t>Case 1: 5 Words</t>
+  </si>
+  <si>
+    <t>The cat is very playful.</t>
+  </si>
+  <si>
+    <t>You are a **Content Word Extractor**. 
+You will be given: 
+- An input sentence in English (S + V + O1 + O2 + ...). 
+--- 
+### **Your Tasks:** 
+1. **Split the Sentence into S + V + O1 + O2 Structure:** 
+- Identify and split the sentence into: 
+- **S** (Subject): The doer of the action. 
+- **V** (Verb): The main action in the sentence. 
+- **O1, O2, ...** (Objects): The targets or receivers of the action. 
+2. **Eliminate Non-Content Words:** 
+- Identify and assign **`content_words_order: null`** to: 
+- **Pronouns:** e.g., he, she, they. 
+- **"To be" verbs:** e.g., is, are, was, were (unless they carry meaning, such as "exist" or "become"). 
+- **Articles:** e.g., a, an, the (in most cases). 
+- **Prepositions:** e.g., in, on, at (unless integral to meaning). 
+- **Conjunctions:** e.g., and, or, but. 
+3. **Retain Content Words:** 
+- Treat **V**, **O1**, **O2**, etc., as **content words**. 
+- Group words into **phrases** where they contribute to a unified meaning (e.g., "very interesting", "a big car"). 
+- Assign a **sequential index** (starting from 1) to these words or phrases in `content_words_order`. 
+4. **Translate the Sentence into Vietnamese:** 
+- Translate the full English sentence into Vietnamese accurately, keeping its meaning and S + V + O1 + O2 structure. 
+5. **Extract Content Words in Vietnamese:** 
+- Match the Vietnamese content words or phrases to their English equivalents. 
+- Assign **sequential indices** (starting from 1) for Vietnamese content words or phrases. 
+- Assign **`content_words_order: null`** to non-content words in Vietnamese, following the same logic as English. 
+--- 
+### **Key Note:** 
+- Non-content words are explicitly identified and assigned **`content_words_order: null`**. 
+- Phrases that contribute to a unified meaning (e.g., "very interesting") are treated as single content words. 
+- Content words are indexed sequentially starting from 1. 
+--- 
+### **JSON Template:** 
+```json 
+{ 
+"english_sentence_inputed": "&lt;input sentence in English (S + V + O1 + O2 + ...)&gt;", 
+"highlight_items_en": [ 
+{ "words": "&lt;word/phrase in english_sentence_inputed&gt;", "content_words_order": &lt;sequential index starting from 1 or null for non-content words&gt; } 
+], 
+"vi_sentence_translated": "&lt;Translate the full English sentence to Vietnamese&gt;", 
+"highlight_items_vi": [ 
+{ "words": "&lt;word/phrase in vi_sentence_translated&gt;", "content_words_order": &lt;sequential index starting from 1 or null for non-content words&gt; } 
+] 
 }</t>
   </si>
   <si>
-    <t>```json
-{
-    "english_sentence_inputed": "The movie was very interesting.",
-    "words_en": [
-      { "word": "The", "highlight_index": null },
-      { "word": "movie", "highlight_index": 1 },
-      { "word": "was", "highlight_index": null },
-      { "word": "very", "highlight_index": 2 },
-      { "word": "interesting", "highlight_index": 3 }
-    ],
-    "vi_translated": "Bộ phim rất thú vị.",
-    "words_vi": [
-      { "word": "Bộ phim", "highlight_index": 1 },
-      { "word": "rất", "highlight_index": 2 },
-      { "word": "thú vị", "highlight_index": 3 }
-    ]
-}
-```</t>
-  </si>
-  <si>
-    <t>Happy Case - Adverb Emphasis</t>
-  </si>
-  <si>
-    <t>She runs incredibly fast.</t>
-  </si>
-  <si>
-    <t>```json
-{
-    "english_sentence_inputed": "She runs incredibly fast.",
-    "words_en": [
-      { "word": "She", "highlight_index": null },
-      { "word": "runs", "highlight_index": 1 },
-      { "word": "incredibly", "highlight_index": 2 },
-      { "word": "fast", "highlight_index": 3 }
-    ],
-    "vi_translated": "Cô ấy chạy cực kỳ nhanh.",
-    "words_vi": [
-      { "word": "Cô ấy", "highlight_index": null },
-      { "word": "chạy", "highlight_index": 1 },
-      { "word": "cực kỳ", "highlight_index": 2 },
-      { "word": "nhanh", "highlight_index": 3 }
-    ]
-}
-```</t>
-  </si>
-  <si>
-    <t>Happy Case - Complex Sentence</t>
-  </si>
-  <si>
-    <t>The smart boy completed the challenging task very quickly.</t>
-  </si>
-  <si>
-    <t>```json
-{
-    "english_sentence_inputed": "The smart boy completed the challenging task very quickly.",
-    "words_en": [
-      { "word": "The", "highlight_index": null },
-      { "word": "smart", "highlight_index": 1 },
-      { "word": "boy", "highlight_index": 2 },
-      { "word": "completed", "highlight_index": 3 },
-      { "word": "the", "highlight_index": null },
-      { "word": "challenging", "highlight_index": 4 },
-      { "word": "task", "highlight_index": 5 },
-      { "word": "very", "highlight_index": 6 },
-      { "word": "quickly", "highlight_index": 7 }
-    ],
-    "vi_translated": "Cậu bé thông minh đã hoàn thành nhiệm vụ đầy thách thức rất nhanh chóng.",
-    "words_vi": [
-      { "word": "Cậu bé", "highlight_index": 2 },
-      { "word": "thông minh", "highlight_index": 1 },
-      { "word": "đã", "highlight_index": null },
-      { "word": "hoàn thành", "highlight_index": 3 },
-      { "word": "nhiệm vụ", "highlight_index": 5 },
-      { "word": "đầy thách thức", "highlight_index": 4 },
-      { "word": "rất", "highlight_index": 6 },
-      { "word": "nhanh chóng", "highlight_index": 7 }
-    ]
-}
-```</t>
-  </si>
-  <si>
-    <t>Happy Case - Phrasal Verb</t>
-  </si>
-  <si>
-    <t>He gave up his seat to an elderly person.</t>
-  </si>
-  <si>
-    <t>```json
-{
-    "english_sentence_inputed": "He gave up his seat to an elderly person.",
-    "words_en": [
-      { "word": "He", "highlight_index": null },
-      { "word": "gave", "highlight_index": 1 },
-      { "word": "up", "highlight_index": null },
-      { "word": "his", "highlight_index": null },
-      { "word": "seat", "highlight_index": 2 },
-      { "word": "to", "highlight_index": null },
-      { "word": "an", "highlight_index": null },
-      { "word": "elderly", "highlight_index": 3 },
-      { "word": "person", "highlight_index": 4 }
-    ],
-    "vi_translated": "Ông đã nhường chỗ ngồi của mình cho một người cao tuổi.",
-    "words_vi": [
-      { "word": "Ông", "highlight_index": null },
-      { "word": "đã", "highlight_index": null },
-      { "word": "nhường", "highlight_index": 1 },
-      { "word": "chỗ ngồi", "highlight_index": 2 },
-      { "word": "của", "highlight_index": null },
-      { "word": "mình", "highlight_index": null },
-      { "word": "cho", "highlight_index": null },
-      { "word": "một", "highlight_index": null },
-      { "word": "người cao tuổi", "highlight_index": 3 }
-    ]
-}
-```</t>
-  </si>
-  <si>
-    <t>Happy Case - Multiple Adjectives</t>
-  </si>
-  <si>
-    <t>The tall, handsome man was very confident.</t>
-  </si>
-  <si>
-    <t>```json
-{
-    "english_sentence_inputed": "The tall, handsome man was very confident.",
-    "words_en": [
-      { "word": "The", "highlight_index": null },
-      { "word": "tall", "highlight_index": 1 },
-      { "word": "handsome", "highlight_index": 2 },
-      { "word": "man", "highlight_index": 3 },
-      { "word": "was", "highlight_index": null },
-      { "word": "very", "highlight_index": 4 },
-      { "word": "confident", "highlight_index": 5 }
-    ],
-    "vi_translated": "Người đàn ông cao và đẹp trai rất tự tin.",
-    "words_vi": [
-      { "word": "Người", "highlight_index": null },
-      { "word": "đàn", "highlight_index": null },
-      { "word": "ông", "highlight_index": 3 },
-      { "word": "cao", "highlight_index": 1 },
-      { "word": "và", "highlight_index": null },
-      { "word": "đẹp", "highlight_index": 2 },
-      { "word": "trai", "highlight_index": null },
-      { "word": "rất", "highlight_index": 4 },
-      { "word": "tự", "highlight_index": null },
-      { "word": "tin", "highlight_index": 5 }
-    ]
-}
-```</t>
-  </si>
-  <si>
-    <t>Happy Case - Questions</t>
-  </si>
-  <si>
-    <t>Why is this book so important?</t>
-  </si>
-  <si>
-    <t>```json
-{
-    "english_sentence_inputed": "Why is this book so important?",
-    "words_en": [
-      { "word": "Why", "highlight_index": null },
-      { "word": "is", "highlight_index": null },
-      { "word": "this", "highlight_index": null },
-      { "word": "book", "highlight_index": 1 },
-      { "word": "so", "highlight_index": 2 },
-      { "word": "important", "highlight_index": 3 }
-    ],
-    "vi_translated": "Tại sao cuốn sách này lại quan trọng như vậy?",
-    "words_vi": [
-      { "word": "Tại sao", "highlight_index": null },
-      { "word": "cuốn sách", "highlight_index": 1 },
-      { "word": "này", "highlight_index": null },
-      { "word": "lại", "highlight_index": null },
-      { "word": "quan trọng", "highlight_index": 3 },
-      { "word": "như vậy", "highlight_index": 2 }
-    ]
-}
-```</t>
-  </si>
-  <si>
-    <t>Happy Case - Negation</t>
-  </si>
-  <si>
-    <t>He didn’t enjoy the boring lecture.</t>
-  </si>
-  <si>
-    <t>```json
-{
-    "english_sentence_inputed": "He didn’t enjoy the boring lecture.",
-    "words_en": [
-      { "word": "He", "highlight_index": null },
-      { "word": "didn’t", "highlight_index": null },
-      { "word": "enjoy", "highlight_index": 1 },
-      { "word": "the", "highlight_index": null },
-      { "word": "boring", "highlight_index": 2 },
-      { "word": "lecture", "highlight_index": 3 }
-    ],
-    "vi_translated": "Anh ấy không thích bài giảng nhàm chán.",
-    "words_vi": [
-      { "word": "Anh ấy", "highlight_index": null },
-      { "word": "không", "highlight_index": null },
-      { "word": "thích", "highlight_index": 1 },
-      { "word": "bài giảng", "highlight_index": 3 },
-      { "word": "nhàm chán", "highlight_index": 2 }
-    ]
-}
-```</t>
-  </si>
-  <si>
-    <t>Happy Case - Idiomatic Phrase</t>
-  </si>
-  <si>
-    <t>They hit the nail on the head with their plan.</t>
-  </si>
-  <si>
-    <t>```json
-{
-    "english_sentence_inputed": "They hit the nail on the head with their plan.",
-    "words_en": [
-        { "word": "They", "highlight_index": null },
-        { "word": "hit", "highlight_index": 1 },
-        { "word": "the", "highlight_index": null },
-        { "word": "nail", "highlight_index": 2 },
-        { "word": "on", "highlight_index": null },
-        { "word": "the", "highlight_index": null },
-        { "word": "head", "highlight_index": 3 },
-        { "word": "with", "highlight_index": null },
-        { "word": "their", "highlight_index": null },
-        { "word": "plan", "highlight_index": 4 }
-    ],
-    "vi_translated": "Họ đã đánh trúng vấn đề với kế hoạch của họ.",
-    "words_vi": [
-        { "word": "Họ", "highlight_index": null },
-        { "word": "đánh", "highlight_index": 1 },
-        { "word": "trúng", "highlight_index": 2 },
-        { "word": "vấn đề", "highlight_index": 3 },
-        { "word": "với", "highlight_index": null },
-        { "word": "kế hoạch", "highlight_index": 4 },
-        { "word": "của", "highlight_index": null },
-        { "word": "họ", "highlight_index": null }
-    ]
-}
-```</t>
-  </si>
-  <si>
-    <t>Unhappy Case - Empty Input</t>
-  </si>
-  <si>
-    <t>```json
-{
-    "english_sentence_inputed": "",
-    "words_en": [],
-    "vi_translated": "",
-    "words_vi": []
-}
-```</t>
+    <t>Case 2: 6 Words</t>
+  </si>
+  <si>
+    <t>She finished her homework last night.</t>
+  </si>
+  <si>
+    <t>Case 3: 7 Words</t>
+  </si>
+  <si>
+    <t>He built a wooden house for birds.</t>
+  </si>
+  <si>
+    <t>Case 4: 8 Words</t>
+  </si>
+  <si>
+    <t>They explored the forest early in the morning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are a **Content Word Extractor**. 
+You will be given: 
+- An input sentence in English (S + V + O1 + O2 + ...). 
+---
+### **Your Tasks:** 
+1. **Split the Sentence into S + V + O1 + O2 Structure:** 
+- Identify and split the sentence into: 
+- **S** (Subject): The doer of the action. 
+- **V** (Verb): The main action in the sentence. 
+- **O1, O2, ...** (Objects): The targets or receivers of the action. 
+2. **Eliminate Non-Content Words:** 
+- Identify and assign **`content_words_order: null`** to: 
+- **Pronouns:** e.g., he, she, they. 
+- **"To be" verbs:** e.g., is, are, was, were (unless they carry meaning, such as "exist" or "become"). 
+- **Articles:** e.g., a, an, the (in most cases). 
+- **Prepositions:** e.g., in, on, at (unless integral to meaning). 
+- **Conjunctions:** e.g., and, or, but. 
+3. **Retain Content Words:** 
+- Treat **V**, **O1**, **O2**, etc., as **content words**. 
+- Group words into **phrases** where they contribute to a unified meaning (e.g., "very interesting", "a big car"). 
+- Assign a **sequential index** (starting from 1) to these words or phrases in `content_words_order`. 
+4. **Translate the Sentence into Vietnamese:** 
+- Translate the full English sentence into Vietnamese accurately, keeping its meaning and S + V + O1 + O2 structure. 
+5. **Extract Content Words in Vietnamese:** 
+- Match the Vietnamese content words or phrases to their English equivalents. 
+- Assign **sequential indices** (starting from 1) for Vietnamese content words or phrases. 
+- Assign **`content_words_order: null`** to non-content words in Vietnamese, following the same logic as English. 
+---
+### **Key Note:** 
+- Non-content words are explicitly identified and assigned **`content_words_order: null`**. 
+- Phrases that contribute to a unified meaning (e.g., "very interesting") are treated as single content words. 
+- Content words are indexed sequentially starting from 1. 
+---
+### **JSON Template:** 
+```json 
+{ 
+"english_sentence_inputed": "&lt;input sentence in English (S + V + O1 + O2 + ...)&gt;", 
+"highlight_items_en": [ 
+{ "words": "&lt;word/phrase in english_sentence_inputed&gt;", "content_words_order": &lt;sequential index starting from 1 or null for non-content words&gt; } 
+], 
+"vi_sentence_translated": "&lt;Translate the full English sentence to Vietnamese&gt;", 
+"highlight_items_vi": [ 
+{ "words": "&lt;word/phrase in vi_sentence_translated&gt;", "content_words_order": &lt;sequential index starting from 1 or null for non-content words&gt; } 
+] 
+} 
+</t>
+  </si>
+  <si>
+    <t>Case 5: 9 Words</t>
+  </si>
+  <si>
+    <t>The little boy smiled happily at his parents.</t>
+  </si>
+  <si>
+    <t>Case 6: 10 Words</t>
+  </si>
+  <si>
+    <t>She cooked a delicious meal for the family yesterday.</t>
+  </si>
+  <si>
+    <t>Case 7: 11 Words</t>
+  </si>
+  <si>
+    <t>The team worked extremely hard to achieve their shared goal.</t>
+  </si>
+  <si>
+    <t>Case 8: 12 Words</t>
+  </si>
+  <si>
+    <t>He painted the walls of his room with bright, vibrant colors.</t>
+  </si>
+  <si>
+    <t>Case 9: 13 Words</t>
+  </si>
+  <si>
+    <t>John donated his old clothes and books to the local charity last weekend.</t>
+  </si>
+  <si>
+    <t>Case 10: 14 Words</t>
+  </si>
+  <si>
+    <t>The girl with the blue dress walked confidently to the stage for her award.</t>
+  </si>
+  <si>
+    <t>Case 11: 15 Words</t>
+  </si>
+  <si>
+    <t>The teacher gave detailed instructions to the students and clarified all their questions patiently.</t>
+  </si>
+  <si>
+    <t>Case 12: 16 Words</t>
+  </si>
+  <si>
+    <t>He carefully examined the report, noting the significant changes made by the previous management team.</t>
+  </si>
+  <si>
+    <t>Case 13: 18 Words</t>
+  </si>
+  <si>
+    <t>They decided to organize a surprise party for their best friend, inviting everyone from their college days.</t>
+  </si>
+  <si>
+    <t>Case 14: 20 Words</t>
+  </si>
+  <si>
+    <t>The project was delayed due to unexpected circumstances, but the team quickly adjusted and worked to meet the deadline.</t>
+  </si>
+  <si>
+    <t>Case 15: 22 Words</t>
+  </si>
+  <si>
+    <t>The scientist presented his findings at the international conference, explaining complex theories with simple analogies for better understanding.</t>
   </si>
   <si>
     <t>Unhappy Case - One Word</t>
@@ -338,154 +240,23 @@
     <t>Amazing.</t>
   </si>
   <si>
-    <t>```json
-{
-    "english_sentence_inputed": "Amazing.",
-    "words_en": [
-      { "word": "Amazing", "highlight_index": 1 }
-    ],
-    "vi_translated": "Tuyệt vời.",
-    "words_vi": [
-      { "word": "Tuyệt vời", "highlight_index": 1 }
-    ]
-}
-```</t>
-  </si>
-  <si>
     <t>Unhappy Case - Non-English</t>
   </si>
   <si>
     <t>Cô ấy rất xinh đẹp.</t>
   </si>
   <si>
-    <t>```json
-{
-    "english_sentence_inputed": "She is very beautiful.",
-    "words_en": [
-      { "word": "She", "highlight_index": null },
-      { "word": "is", "highlight_index": null },
-      { "word": "very", "highlight_index": 1 },
-      { "word": "beautiful", "highlight_index": 2 }
-    ],
-    "vi_translated": "Cô ấy rất xinh đẹp.",
-    "words_vi": [
-      { "word": "Cô ấy", "highlight_index": null },
-      { "word": "rất", "highlight_index": 1 },
-      { "word": "xinh đẹp", "highlight_index": 2 }
-    ]
-}
-```</t>
-  </si>
-  <si>
-    <t>Unhappy Case - Numbers Only</t>
-  </si>
-  <si>
-    <t>```json
-{
-    "english_sentence_inputed": "1234567890",
-    "words_en": [
-      { "word": "1234567890", "highlight_index": 1 }
-    ],
-    "vi_translated": "1234567890",
-    "words_vi": [
-      { "word": "1234567890", "highlight_index": 1 }
-    ]
-}
-```</t>
-  </si>
-  <si>
     <t>Unhappy Case - Mixed Content</t>
   </si>
   <si>
     <t>Wow! This 12345 example has numbers and symbols @#!.</t>
-  </si>
-  <si>
-    <t>```json
-{
-    "english_sentence_inputed": "Wow! This 12345 example has numbers and symbols @#!.",
-    "words_en": [
-      { "word": "Wow", "highlight_index": 1 },
-      { "word": "This", "highlight_index": null },
-      { "word": "12345", "highlight_index": 2 },
-      { "word": "example", "highlight_index": 3 },
-      { "word": "has", "highlight_index": null },
-      { "word": "numbers", "highlight_index": 4 },
-      { "word": "and", "highlight_index": null },
-      { "word": "symbols", "highlight_index": 5 },
-      { "word": "@#!", "highlight_index": null }
-    ],
-    "vi_translated": "Wow! Ví dụ 12345 này có số và ký hiệu @#!.",
-    "words_vi": [
-      { "word": "Wow", "highlight_index": 1 },
-      { "word": "Ví dụ", "highlight_index": 2 },
-      { "word": "này", "highlight_index": null },
-      { "word": "có", "highlight_index": null },
-      { "word": "số", "highlight_index": 4 },
-      { "word": "và", "highlight_index": null },
-      { "word": "ký hiệu", "highlight_index": 5 },
-      { "word": "@#!", "highlight_index": null }
-    ]
-}
-```</t>
-  </si>
-  <si>
-    <t>Unhappy Case - Run-on Sentence</t>
-  </si>
-  <si>
-    <t>The girl who was wearing a red dress sang beautifully but everyone was distracted by the barking dog.</t>
-  </si>
-  <si>
-    <t>```json
-{
-    "english_sentence_inputed": "The girl who was wearing a red dress sang beautifully but everyone was distracted by the barking dog.",
-    "words_en": [
-        { "word": "The", "highlight_index": null },
-        { "word": "girl", "highlight_index": 1 },
-        { "word": "who", "highlight_index": null },
-        { "word": "was", "highlight_index": null },
-        { "word": "wearing", "highlight_index": 2 },
-        { "word": "a", "highlight_index": null },
-        { "word": "red", "highlight_index": 3 },
-        { "word": "dress", "highlight_index": 4 },
-        { "word": "sang", "highlight_index": 5 },
-        { "word": "beautifully", "highlight_index": 6 },
-        { "word": "but", "highlight_index": null },
-        { "word": "everyone", "highlight_index": 7 },
-        { "word": "was", "highlight_index": null },
-        { "word": "distracted", "highlight_index": 8 },
-        { "word": "by", "highlight_index": null },
-        { "word": "the", "highlight_index": null },
-        { "word": "barking", "highlight_index": 9 },
-        { "word": "dog", "highlight_index": 10 }
-    ],
-    "vi_translated": "Cô gái đang mặc một chiếc váy đỏ đã hát một cách tuyệt vời nhưng mọi người đã bị phân tâm bởi con chó đang sủa.",
-    "words_vi": [
-        { "word": "Cô gái", "highlight_index": 1 },
-        { "word": "đang", "highlight_index": null },
-        { "word": "mặc", "highlight_index": 2 },
-        { "word": "một chiếc váy đỏ", "highlight_index": 3 },
-        { "word": "đã", "highlight_index": null },
-        { "word": "hát", "highlight_index": 5 },
-        { "word": "một cách tuyệt vời", "highlight_index": 6 },
-        { "word": "nhưng", "highlight_index": null },
-        { "word": "mọi người", "highlight_index": 7 },
-        { "word": "đã", "highlight_index": null },
-        { "word": "bị phân tâm", "highlight_index": 8 },
-        { "word": "bởi", "highlight_index": null },
-        { "word": "con chó đang sủa", "highlight_index": 9 },
-        { "word": "đang", "highlight_index": null },
-        { "word": "sủa", "highlight_index": null }
-    ]
-}
-```</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,6 +276,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -514,7 +297,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -529,69 +312,65 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -602,10 +381,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -643,71 +422,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -735,7 +514,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -758,11 +537,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -771,13 +550,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -787,7 +566,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -796,7 +575,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -805,7 +584,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -813,10 +592,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -881,307 +660,349 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="14" width="26.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="26.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="26.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="15" width="26.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="8.88671875" style="5"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="8.88671875" style="5"/>
+    <col min="5" max="5" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="33.75" customFormat="1" s="4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="337.5" customFormat="1" s="4">
-      <c r="A2" s="7">
+    </row>
+    <row r="2" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="1636.5" customFormat="1" s="4">
-      <c r="A3" s="7">
+      <c r="E2" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="506.25" customFormat="1" s="4">
+    </row>
+    <row r="4" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="525" customFormat="1" s="4">
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="506.25" customFormat="1" s="4">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="E6" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="5" t="s">
+      <c r="D7" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="412.5" customFormat="1" s="4">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="E7" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="393.75" customFormat="1" s="4">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="525" customFormat="1" s="4">
+      <c r="E8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="150" customFormat="1" s="4">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
+      <c r="E12" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="225" customFormat="1" s="4">
-      <c r="A11" s="5">
+      <c r="D13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="7" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="5" t="s">
+      <c r="D14" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="318.75" customFormat="1" s="4">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="E14" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6" t="s">
+      <c r="E15" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="225" customFormat="1" s="4">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="D16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="8">
+      <c r="E16" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="8">
         <v>1234567890</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="506.25" customFormat="1" s="4">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="806.25" customFormat="1" s="4">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="E20" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D21" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="618.75" customFormat="1" s="4">
-      <c r="A16" s="13"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="11"/>
+      <c r="E21" s="9" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1189,3011 +1010,3011 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="15.75">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="15.75">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="15.75">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="15.75">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="15.75">
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="15.75">
+    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="15.75">
+    <row r="27" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="15.75">
+    <row r="28" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="15.75">
+    <row r="29" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="15.75">
+    <row r="30" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="15.75">
+    <row r="31" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="15.75">
+    <row r="32" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="15.75">
+    <row r="33" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="15.75">
+    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="15.75">
+    <row r="35" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="15.75">
+    <row r="36" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="15.75">
+    <row r="37" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="15.75">
+    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="15.75">
+    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="15.75">
+    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="15.75">
+    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="15.75">
+    <row r="42" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="15.75">
+    <row r="43" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="15.75">
+    <row r="44" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="15.75">
+    <row r="45" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="15.75">
+    <row r="46" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="15.75">
+    <row r="47" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="15.75">
+    <row r="48" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="15.75">
+    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="15.75">
+    <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="15.75">
+    <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="15.75">
+    <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="15.75">
+    <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="15.75">
+    <row r="54" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="15.75">
+    <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="15.75">
+    <row r="56" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="15.75">
+    <row r="57" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="15.75">
+    <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="15.75">
+    <row r="59" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="15.75">
+    <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="15.75">
+    <row r="61" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="15.75">
+    <row r="62" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="15.75">
+    <row r="63" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="15.75">
+    <row r="64" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="15.75">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="15.75">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="15.75">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="15.75">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="15.75">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="15.75">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="15.75">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="15.75">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="15.75">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="15.75">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="15.75">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="15.75">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="15.75">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="15.75">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="15.75">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="15.75">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="15.75">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="15.75">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="15.75">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="15.75">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="15.75">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="15.75">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="15.75">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="15.75">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="15.75">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="15.75">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="15.75">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="15.75">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="15.75">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="15.75">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="15.75">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="15.75">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="15.75">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="15.75">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="15.75">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="15.75">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="15.75">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="15.75">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="15.75">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="15.75">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="15.75">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="15.75">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="15.75">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="15.75">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="15.75">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="15.75">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="15.75">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="15.75">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="15.75">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="15.75">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="15.75">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="15.75">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="15.75">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="15.75">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="15.75">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="15.75">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="15.75">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="15.75">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="15.75">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="15.75">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="15.75">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="15.75">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="15.75">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="15.75">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="15.75">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="15.75">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="15.75">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="15.75">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="15.75">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="15.75">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="15.75">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="15.75">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="15.75">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="15.75">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="15.75">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="15.75">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="15.75">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="15.75">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="15.75">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="15.75">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="15.75">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="15.75">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="15.75">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="15.75">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="15.75">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="15.75">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="15.75">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="15.75">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="15.75">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="15.75">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="15.75">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="15.75">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="15.75">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="15.75">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="15.75">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="15.75">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="15.75">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="15.75">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="15.75">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="15.75">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="15.75">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="15.75">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="15.75">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="15.75">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="15.75">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="15.75">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="15.75">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="15.75">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="15.75">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="15.75">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="15.75">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="15.75">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="15.75">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="15.75">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="15.75">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="15.75">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="15.75">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="15.75">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="15.75">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="15.75">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="15.75">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="15.75">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="15.75">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="15.75">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="15.75">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="15.75">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="15.75">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="15.75">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="15.75">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="15.75">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="15.75">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="15.75">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="15.75">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="15.75">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="15.75">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="15.75">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="15.75">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="15.75">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="15.75">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="15.75">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="15.75">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="15.75">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="15.75">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="15.75">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="15.75">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="15.75">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="15.75">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="15.75">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="15.75">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="15.75">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="15.75">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="15.75">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="15.75">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="15.75">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="15.75">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="15.75">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="15.75">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="15.75">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="15.75">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="15.75">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="15.75">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="15.75">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="15.75">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="15.75">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="15.75">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="15.75">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="15.75">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="15.75">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="15.75">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="15.75">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="15.75">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="15.75">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="15.75">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="15.75">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="15.75">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="15.75">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="15.75">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="15.75">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="15.75">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="15.75">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="15.75">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="15.75">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="15.75">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="15.75">
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="15.75">
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="15.75">
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="15.75">
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="15.75">
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="15.75">
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="15.75">
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="15.75">
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="15.75">
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="15.75">
+    <row r="257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="15.75">
+    <row r="258" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="15.75">
+    <row r="259" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="15.75">
+    <row r="260" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="15.75">
+    <row r="261" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="15.75">
+    <row r="262" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="15.75">
+    <row r="263" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="15.75">
+    <row r="264" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="15.75">
+    <row r="265" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="15.75">
+    <row r="266" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="15.75">
+    <row r="267" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="15.75">
+    <row r="268" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="15.75">
+    <row r="269" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="15.75">
+    <row r="270" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="15.75">
+    <row r="271" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="15.75">
+    <row r="272" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="15.75">
+    <row r="273" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="15.75">
+    <row r="274" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="15.75">
+    <row r="275" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="15.75">
+    <row r="276" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="15.75">
+    <row r="277" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="15.75">
+    <row r="278" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="15.75">
+    <row r="279" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="15.75">
+    <row r="280" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="15.75">
+    <row r="281" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="15.75">
+    <row r="282" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="15.75">
+    <row r="283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="15.75">
+    <row r="284" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="15.75">
+    <row r="285" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="15.75">
+    <row r="286" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="15.75">
+    <row r="287" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="15.75">
+    <row r="288" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="15.75">
+    <row r="289" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="15.75">
+    <row r="290" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="15.75">
+    <row r="291" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="15.75">
+    <row r="292" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="15.75">
+    <row r="293" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="15.75">
+    <row r="294" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="15.75">
+    <row r="295" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="15.75">
+    <row r="296" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="15.75">
+    <row r="297" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="15.75">
+    <row r="298" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="15.75">
+    <row r="299" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="15.75">
+    <row r="300" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="15.75">
+    <row r="301" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="15.75">
+    <row r="302" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="15.75">
+    <row r="303" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="15.75">
+    <row r="304" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="15.75">
+    <row r="305" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="15.75">
+    <row r="306" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="15.75">
+    <row r="307" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="15.75">
+    <row r="308" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="15.75">
+    <row r="309" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="15.75">
+    <row r="310" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="15.75">
+    <row r="311" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="15.75">
+    <row r="312" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="15.75">
+    <row r="313" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="15.75">
+    <row r="314" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="15.75">
+    <row r="315" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="15.75">
+    <row r="316" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="15.75">
+    <row r="317" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="15.75">
+    <row r="318" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="15.75">
+    <row r="319" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="15.75">
+    <row r="320" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="15.75">
+    <row r="321" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="15.75">
+    <row r="322" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="15.75">
+    <row r="323" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="15.75">
+    <row r="324" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="15.75">
+    <row r="325" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="15.75">
+    <row r="326" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="15.75">
+    <row r="327" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="15.75">
+    <row r="328" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="15.75">
+    <row r="329" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="15.75">
+    <row r="330" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="15.75">
+    <row r="331" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="15.75">
+    <row r="332" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="15.75">
+    <row r="333" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="15.75">
+    <row r="334" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="15.75">
+    <row r="335" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="15.75">
+    <row r="336" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="15.75">
+    <row r="337" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="15.75">
+    <row r="338" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="15.75">
+    <row r="339" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="15.75">
+    <row r="340" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="15.75">
+    <row r="341" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="15.75">
+    <row r="342" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="15.75">
+    <row r="343" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="15.75">
+    <row r="344" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="15.75">
+    <row r="345" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="15.75">
+    <row r="346" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="15.75">
+    <row r="347" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="15.75">
+    <row r="348" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="15.75">
+    <row r="349" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="15.75">
+    <row r="350" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="15.75">
+    <row r="351" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="15.75">
+    <row r="352" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="15.75">
+    <row r="353" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="15.75">
+    <row r="354" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="15.75">
+    <row r="355" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="15.75">
+    <row r="356" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="15.75">
+    <row r="357" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="15.75">
+    <row r="358" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="15.75">
+    <row r="359" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="15.75">
+    <row r="360" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="15.75">
+    <row r="361" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="15.75">
+    <row r="362" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="15.75">
+    <row r="363" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="15.75">
+    <row r="364" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="15.75">
+    <row r="365" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="15.75">
+    <row r="366" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="15.75">
+    <row r="367" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="15.75">
+    <row r="368" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="15.75">
+    <row r="369" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="15.75">
+    <row r="370" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="15.75">
+    <row r="371" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="15.75">
+    <row r="372" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="15.75">
+    <row r="373" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="15.75">
+    <row r="374" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="15.75">
+    <row r="375" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="15.75">
+    <row r="376" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="15.75">
+    <row r="377" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="15.75">
+    <row r="378" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="15.75">
+    <row r="379" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="15.75">
+    <row r="380" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="15.75">
+    <row r="381" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="15.75">
+    <row r="382" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="15.75">
+    <row r="383" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="15.75">
+    <row r="384" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="15.75">
+    <row r="385" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="15.75">
+    <row r="386" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="15.75">
+    <row r="387" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="15.75">
+    <row r="388" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="15.75">
+    <row r="389" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="15.75">
+    <row r="390" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="15.75">
+    <row r="391" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="15.75">
+    <row r="392" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="15.75">
+    <row r="393" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="15.75">
+    <row r="394" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="15.75">
+    <row r="395" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="15.75">
+    <row r="396" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="15.75">
+    <row r="397" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="15.75">
+    <row r="398" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="15.75">
+    <row r="399" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="15.75">
+    <row r="400" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="15.75">
+    <row r="401" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="15.75">
+    <row r="402" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="15.75">
+    <row r="403" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="15.75">
+    <row r="404" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="15.75">
+    <row r="405" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="15.75">
+    <row r="406" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="15.75">
+    <row r="407" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="15.75">
+    <row r="408" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="15.75">
+    <row r="409" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="15.75">
+    <row r="410" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="15.75">
+    <row r="411" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="15.75">
+    <row r="412" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="15.75">
+    <row r="413" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="15.75">
+    <row r="414" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="15.75">
+    <row r="415" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="15.75">
+    <row r="416" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="15.75">
+    <row r="417" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="15.75">
+    <row r="418" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="15.75">
+    <row r="419" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="15.75">
+    <row r="420" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="15.75">
+    <row r="421" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="15.75">
+    <row r="422" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="15.75">
+    <row r="423" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="15.75">
+    <row r="424" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="15.75">
+    <row r="425" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="15.75">
+    <row r="426" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="15.75">
+    <row r="427" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="15.75">
+    <row r="428" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="15.75">
+    <row r="429" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="15.75">
+    <row r="430" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="15.75">
+    <row r="431" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="15.75">
+    <row r="432" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="15.75">
+    <row r="433" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="15.75">
+    <row r="434" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="15.75">
+    <row r="435" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="15.75">
+    <row r="436" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="15.75">
+    <row r="437" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="15.75">
+    <row r="438" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="15.75">
+    <row r="439" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="15.75">
+    <row r="440" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="15.75">
+    <row r="441" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="15.75">
+    <row r="442" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="15.75">
+    <row r="443" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="15.75">
+    <row r="444" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="15.75">
+    <row r="445" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="15.75">
+    <row r="446" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="15.75">
+    <row r="447" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="15.75">
+    <row r="448" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="15.75">
+    <row r="449" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="15.75">
+    <row r="450" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="15.75">
+    <row r="451" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="15.75">
+    <row r="452" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="15.75">
+    <row r="453" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="15.75">
+    <row r="454" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="15.75">
+    <row r="455" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="15.75">
+    <row r="456" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="15.75">
+    <row r="457" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="15.75">
+    <row r="458" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="15.75">
+    <row r="459" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="15.75">
+    <row r="460" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="15.75">
+    <row r="461" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="15.75">
+    <row r="462" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="15.75">
+    <row r="463" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="15.75">
+    <row r="464" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="15.75">
+    <row r="465" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="15.75">
+    <row r="466" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="15.75">
+    <row r="467" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="15.75">
+    <row r="468" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="15.75">
+    <row r="469" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="15.75">
+    <row r="470" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="15.75">
+    <row r="471" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="15.75">
+    <row r="472" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="15.75">
+    <row r="473" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="15.75">
+    <row r="474" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="15.75">
+    <row r="475" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="15.75">
+    <row r="476" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="15.75">
+    <row r="477" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="15.75">
+    <row r="478" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="15.75">
+    <row r="479" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="15.75">
+    <row r="480" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="15.75">
+    <row r="481" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="15.75">
+    <row r="482" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="15.75">
+    <row r="483" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="15.75">
+    <row r="484" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="15.75">
+    <row r="485" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="15.75">
+    <row r="486" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="15.75">
+    <row r="487" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="15.75">
+    <row r="488" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="15.75">
+    <row r="489" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="15.75">
+    <row r="490" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="15.75">
+    <row r="491" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="15.75">
+    <row r="492" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="15.75">
+    <row r="493" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="15.75">
+    <row r="494" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="15.75">
+    <row r="495" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="15.75">
+    <row r="496" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="15.75">
+    <row r="497" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="15.75">
+    <row r="498" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="15.75">
+    <row r="499" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="15.75">
+    <row r="500" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="15.75">
+    <row r="501" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="15.75">
+    <row r="502" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="15.75">
+    <row r="503" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="15.75">
+    <row r="504" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="15.75">
+    <row r="505" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="15.75">
+    <row r="506" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="15.75">
+    <row r="507" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="15.75">
+    <row r="508" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="15.75">
+    <row r="509" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="15.75">
+    <row r="510" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="15.75">
+    <row r="511" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="15.75">
+    <row r="512" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="15.75">
+    <row r="513" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="15.75">
+    <row r="514" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="15.75">
+    <row r="515" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="15.75">
+    <row r="516" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="15.75">
+    <row r="517" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="15.75">
+    <row r="518" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="15.75">
+    <row r="519" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="15.75">
+    <row r="520" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="15.75">
+    <row r="521" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="15.75">
+    <row r="522" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="15.75">
+    <row r="523" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="15.75">
+    <row r="524" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="15.75">
+    <row r="525" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="15.75">
+    <row r="526" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="15.75">
+    <row r="527" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="15.75">
+    <row r="528" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="15.75">
+    <row r="529" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="15.75">
+    <row r="530" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="15.75">
+    <row r="531" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="15.75">
+    <row r="532" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="15.75">
+    <row r="533" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="15.75">
+    <row r="534" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="15.75">
+    <row r="535" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="15.75">
+    <row r="536" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="15.75">
+    <row r="537" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="15.75">
+    <row r="538" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="15.75">
+    <row r="539" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="15.75">
+    <row r="540" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="15.75">
+    <row r="541" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="15.75">
+    <row r="542" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="15.75">
+    <row r="543" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="15.75">
+    <row r="544" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="15.75">
+    <row r="545" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="15.75">
+    <row r="546" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="15.75">
+    <row r="547" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="15.75">
+    <row r="548" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="15.75">
+    <row r="549" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="15.75">
+    <row r="550" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="15.75">
+    <row r="551" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="15.75">
+    <row r="552" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="15.75">
+    <row r="553" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="15.75">
+    <row r="554" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="15.75">
+    <row r="555" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="15.75">
+    <row r="556" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="15.75">
+    <row r="557" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="15.75">
+    <row r="558" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="15.75">
+    <row r="559" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="15.75">
+    <row r="560" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="15.75">
+    <row r="561" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="15.75">
+    <row r="562" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="15.75">
+    <row r="563" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="15.75">
+    <row r="564" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="15.75">
+    <row r="565" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="15.75">
+    <row r="566" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="15.75">
+    <row r="567" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="15.75">
+    <row r="568" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="15.75">
+    <row r="569" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="15.75">
+    <row r="570" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="15.75">
+    <row r="571" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="15.75">
+    <row r="572" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="15.75">
+    <row r="573" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="15.75">
+    <row r="574" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="15.75">
+    <row r="575" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="15.75">
+    <row r="576" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="15.75">
+    <row r="577" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="15.75">
+    <row r="578" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="15.75">
+    <row r="579" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="15.75">
+    <row r="580" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="15.75">
+    <row r="581" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="15.75">
+    <row r="582" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="15.75">
+    <row r="583" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="15.75">
+    <row r="584" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="15.75">
+    <row r="585" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="15.75">
+    <row r="586" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="15.75">
+    <row r="587" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="15.75">
+    <row r="588" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="15.75">
+    <row r="589" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="15.75">
+    <row r="590" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="15.75">
+    <row r="591" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="15.75">
+    <row r="592" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="15.75">
+    <row r="593" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="15.75">
+    <row r="594" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="15.75">
+    <row r="595" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="15.75">
+    <row r="596" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="15.75">
+    <row r="597" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="15.75">
+    <row r="598" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="15.75">
+    <row r="599" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="15.75">
+    <row r="600" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="15.75">
+    <row r="601" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="15.75">
+    <row r="602" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="15.75">
+    <row r="603" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="15.75">
+    <row r="604" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="15.75">
+    <row r="605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="15.75">
+    <row r="606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="15.75">
+    <row r="607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="15.75">
+    <row r="608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="15.75">
+    <row r="609" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="15.75">
+    <row r="610" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="15.75">
+    <row r="611" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="15.75">
+    <row r="612" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="15.75">
+    <row r="613" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="15.75">
+    <row r="614" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="15.75">
+    <row r="615" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="15.75">
+    <row r="616" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="15.75">
+    <row r="617" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="15.75">
+    <row r="618" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="15.75">
+    <row r="619" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="15.75">
+    <row r="620" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="15.75">
+    <row r="621" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="15.75">
+    <row r="622" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="15.75">
+    <row r="623" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="15.75">
+    <row r="624" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="15.75">
+    <row r="625" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="15.75">
+    <row r="626" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="15.75">
+    <row r="627" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="15.75">
+    <row r="628" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="15.75">
+    <row r="629" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="15.75">
+    <row r="630" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="15.75">
+    <row r="631" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="15.75">
+    <row r="632" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="15.75">
+    <row r="633" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="15.75">
+    <row r="634" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="15.75">
+    <row r="635" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="15.75">
+    <row r="636" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="15.75">
+    <row r="637" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="15.75">
+    <row r="638" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="15.75">
+    <row r="639" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="15.75">
+    <row r="640" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="15.75">
+    <row r="641" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="15.75">
+    <row r="642" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="15.75">
+    <row r="643" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="15.75">
+    <row r="644" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="15.75">
+    <row r="645" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="15.75">
+    <row r="646" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="15.75">
+    <row r="647" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="15.75">
+    <row r="648" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="15.75">
+    <row r="649" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="15.75">
+    <row r="650" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="15.75">
+    <row r="651" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="15.75">
+    <row r="652" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="15.75">
+    <row r="653" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="15.75">
+    <row r="654" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="15.75">
+    <row r="655" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="15.75">
+    <row r="656" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="15.75">
+    <row r="657" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="15.75">
+    <row r="658" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="15.75">
+    <row r="659" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="15.75">
+    <row r="660" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="15.75">
+    <row r="661" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="15.75">
+    <row r="662" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="15.75">
+    <row r="663" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="15.75">
+    <row r="664" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="15.75">
+    <row r="665" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="15.75">
+    <row r="666" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="15.75">
+    <row r="667" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="15.75">
+    <row r="668" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="15.75">
+    <row r="669" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="15.75">
+    <row r="670" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="15.75">
+    <row r="671" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="15.75">
+    <row r="672" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="15.75">
+    <row r="673" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="15.75">
+    <row r="674" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="15.75">
+    <row r="675" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="15.75">
+    <row r="676" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="15.75">
+    <row r="677" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="15.75">
+    <row r="678" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="15.75">
+    <row r="679" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="15.75">
+    <row r="680" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="15.75">
+    <row r="681" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="15.75">
+    <row r="682" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="15.75">
+    <row r="683" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="15.75">
+    <row r="684" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="15.75">
+    <row r="685" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="15.75">
+    <row r="686" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="15.75">
+    <row r="687" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="15.75">
+    <row r="688" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="15.75">
+    <row r="689" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="15.75">
+    <row r="690" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="15.75">
+    <row r="691" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="15.75">
+    <row r="692" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="15.75">
+    <row r="693" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="15.75">
+    <row r="694" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="15.75">
+    <row r="695" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="15.75">
+    <row r="696" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="15.75">
+    <row r="697" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="15.75">
+    <row r="698" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="15.75">
+    <row r="699" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="15.75">
+    <row r="700" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="15.75">
+    <row r="701" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="15.75">
+    <row r="702" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="15.75">
+    <row r="703" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="15.75">
+    <row r="704" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="15.75">
+    <row r="705" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="15.75">
+    <row r="706" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="15.75">
+    <row r="707" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="15.75">
+    <row r="708" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="15.75">
+    <row r="709" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="15.75">
+    <row r="710" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="15.75">
+    <row r="711" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="15.75">
+    <row r="712" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="15.75">
+    <row r="713" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="15.75">
+    <row r="714" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="15.75">
+    <row r="715" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="15.75">
+    <row r="716" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="15.75">
+    <row r="717" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="15.75">
+    <row r="718" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="15.75">
+    <row r="719" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="15.75">
+    <row r="720" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="15.75">
+    <row r="721" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="15.75">
+    <row r="722" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="15.75">
+    <row r="723" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="15.75">
+    <row r="724" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="15.75">
+    <row r="725" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="15.75">
+    <row r="726" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="15.75">
+    <row r="727" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="15.75">
+    <row r="728" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="15.75">
+    <row r="729" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="15.75">
+    <row r="730" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="15.75">
+    <row r="731" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="15.75">
+    <row r="732" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="15.75">
+    <row r="733" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="15.75">
+    <row r="734" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="15.75">
+    <row r="735" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="15.75">
+    <row r="736" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="15.75">
+    <row r="737" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="15.75">
+    <row r="738" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="15.75">
+    <row r="739" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="15.75">
+    <row r="740" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="15.75">
+    <row r="741" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="15.75">
+    <row r="742" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="15.75">
+    <row r="743" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="15.75">
+    <row r="744" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="15.75">
+    <row r="745" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="15.75">
+    <row r="746" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="15.75">
+    <row r="747" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="15.75">
+    <row r="748" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="15.75">
+    <row r="749" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="15.75">
+    <row r="750" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="15.75">
+    <row r="751" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="15.75">
+    <row r="752" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="15.75">
+    <row r="753" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="15.75">
+    <row r="754" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="15.75">
+    <row r="755" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="15.75">
+    <row r="756" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="15.75">
+    <row r="757" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="15.75">
+    <row r="758" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="15.75">
+    <row r="759" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="15.75">
+    <row r="760" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="15.75">
+    <row r="761" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="15.75">
+    <row r="762" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="15.75">
+    <row r="763" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="15.75">
+    <row r="764" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="15.75">
+    <row r="765" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="15.75">
+    <row r="766" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="15.75">
+    <row r="767" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="15.75">
+    <row r="768" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="15.75">
+    <row r="769" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="15.75">
+    <row r="770" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="15.75">
+    <row r="771" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="15.75">
+    <row r="772" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="15.75">
+    <row r="773" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="15.75">
+    <row r="774" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="15.75">
+    <row r="775" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="15.75">
+    <row r="776" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="15.75">
+    <row r="777" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="15.75">
+    <row r="778" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="15.75">
+    <row r="779" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="15.75">
+    <row r="780" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="15.75">
+    <row r="781" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="15.75">
+    <row r="782" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="15.75">
+    <row r="783" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="15.75">
+    <row r="784" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="15.75">
+    <row r="785" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="15.75">
+    <row r="786" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="15.75">
+    <row r="787" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="15.75">
+    <row r="788" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="15.75">
+    <row r="789" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="15.75">
+    <row r="790" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="15.75">
+    <row r="791" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="15.75">
+    <row r="792" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="15.75">
+    <row r="793" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="15.75">
+    <row r="794" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="15.75">
+    <row r="795" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="15.75">
+    <row r="796" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="15.75">
+    <row r="797" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="15.75">
+    <row r="798" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="15.75">
+    <row r="799" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="15.75">
+    <row r="800" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="15.75">
+    <row r="801" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="15.75">
+    <row r="802" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="15.75">
+    <row r="803" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="15.75">
+    <row r="804" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="15.75">
+    <row r="805" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="15.75">
+    <row r="806" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="15.75">
+    <row r="807" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="15.75">
+    <row r="808" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="15.75">
+    <row r="809" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="15.75">
+    <row r="810" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="15.75">
+    <row r="811" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="15.75">
+    <row r="812" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="15.75">
+    <row r="813" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="15.75">
+    <row r="814" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="15.75">
+    <row r="815" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="15.75">
+    <row r="816" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="15.75">
+    <row r="817" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="15.75">
+    <row r="818" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="15.75">
+    <row r="819" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="15.75">
+    <row r="820" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="15.75">
+    <row r="821" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="15.75">
+    <row r="822" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="15.75">
+    <row r="823" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="15.75">
+    <row r="824" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="15.75">
+    <row r="825" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="15.75">
+    <row r="826" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="15.75">
+    <row r="827" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="15.75">
+    <row r="828" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="829" customHeight="1" ht="15.75">
+    <row r="829" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="830" customHeight="1" ht="15.75">
+    <row r="830" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="831" customHeight="1" ht="15.75">
+    <row r="831" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="832" customHeight="1" ht="15.75">
+    <row r="832" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="833" customHeight="1" ht="15.75">
+    <row r="833" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="834" customHeight="1" ht="15.75">
+    <row r="834" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="835" customHeight="1" ht="15.75">
+    <row r="835" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="836" customHeight="1" ht="15.75">
+    <row r="836" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="837" customHeight="1" ht="15.75">
+    <row r="837" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="838" customHeight="1" ht="15.75">
+    <row r="838" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="839" customHeight="1" ht="15.75">
+    <row r="839" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="840" customHeight="1" ht="15.75">
+    <row r="840" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="841" customHeight="1" ht="15.75">
+    <row r="841" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="842" customHeight="1" ht="15.75">
+    <row r="842" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="843" customHeight="1" ht="15.75">
+    <row r="843" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="844" customHeight="1" ht="15.75">
+    <row r="844" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="845" customHeight="1" ht="15.75">
+    <row r="845" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="846" customHeight="1" ht="15.75">
+    <row r="846" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="847" customHeight="1" ht="15.75">
+    <row r="847" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="848" customHeight="1" ht="15.75">
+    <row r="848" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="849" customHeight="1" ht="15.75">
+    <row r="849" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="850" customHeight="1" ht="15.75">
+    <row r="850" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="851" customHeight="1" ht="15.75">
+    <row r="851" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="852" customHeight="1" ht="15.75">
+    <row r="852" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="853" customHeight="1" ht="15.75">
+    <row r="853" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="854" customHeight="1" ht="15.75">
+    <row r="854" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="855" customHeight="1" ht="15.75">
+    <row r="855" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="856" customHeight="1" ht="15.75">
+    <row r="856" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="857" customHeight="1" ht="15.75">
+    <row r="857" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="858" customHeight="1" ht="15.75">
+    <row r="858" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="859" customHeight="1" ht="15.75">
+    <row r="859" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="860" customHeight="1" ht="15.75">
+    <row r="860" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="861" customHeight="1" ht="15.75">
+    <row r="861" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="862" customHeight="1" ht="15.75">
+    <row r="862" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="863" customHeight="1" ht="15.75">
+    <row r="863" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="864" customHeight="1" ht="15.75">
+    <row r="864" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="865" customHeight="1" ht="15.75">
+    <row r="865" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="866" customHeight="1" ht="15.75">
+    <row r="866" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="867" customHeight="1" ht="15.75">
+    <row r="867" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="868" customHeight="1" ht="15.75">
+    <row r="868" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="869" customHeight="1" ht="15.75">
+    <row r="869" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="870" customHeight="1" ht="15.75">
+    <row r="870" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="871" customHeight="1" ht="15.75">
+    <row r="871" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="872" customHeight="1" ht="15.75">
+    <row r="872" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="873" customHeight="1" ht="15.75">
+    <row r="873" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="874" customHeight="1" ht="15.75">
+    <row r="874" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="875" customHeight="1" ht="15.75">
+    <row r="875" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="876" customHeight="1" ht="15.75">
+    <row r="876" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="877" customHeight="1" ht="15.75">
+    <row r="877" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="878" customHeight="1" ht="15.75">
+    <row r="878" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="879" customHeight="1" ht="15.75">
+    <row r="879" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="880" customHeight="1" ht="15.75">
+    <row r="880" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="881" customHeight="1" ht="15.75">
+    <row r="881" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="882" customHeight="1" ht="15.75">
+    <row r="882" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="883" customHeight="1" ht="15.75">
+    <row r="883" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="884" customHeight="1" ht="15.75">
+    <row r="884" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="885" customHeight="1" ht="15.75">
+    <row r="885" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="886" customHeight="1" ht="15.75">
+    <row r="886" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="887" customHeight="1" ht="15.75">
+    <row r="887" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="888" customHeight="1" ht="15.75">
+    <row r="888" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="889" customHeight="1" ht="15.75">
+    <row r="889" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="890" customHeight="1" ht="15.75">
+    <row r="890" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="891" customHeight="1" ht="15.75">
+    <row r="891" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="892" customHeight="1" ht="15.75">
+    <row r="892" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="893" customHeight="1" ht="15.75">
+    <row r="893" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="894" customHeight="1" ht="15.75">
+    <row r="894" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="895" customHeight="1" ht="15.75">
+    <row r="895" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="896" customHeight="1" ht="15.75">
+    <row r="896" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="897" customHeight="1" ht="15.75">
+    <row r="897" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="898" customHeight="1" ht="15.75">
+    <row r="898" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="899" customHeight="1" ht="15.75">
+    <row r="899" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="900" customHeight="1" ht="15.75">
+    <row r="900" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="901" customHeight="1" ht="15.75">
+    <row r="901" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="902" customHeight="1" ht="15.75">
+    <row r="902" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="903" customHeight="1" ht="15.75">
+    <row r="903" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="904" customHeight="1" ht="15.75">
+    <row r="904" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="905" customHeight="1" ht="15.75">
+    <row r="905" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="906" customHeight="1" ht="15.75">
+    <row r="906" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="907" customHeight="1" ht="15.75">
+    <row r="907" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="908" customHeight="1" ht="15.75">
+    <row r="908" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="909" customHeight="1" ht="15.75">
+    <row r="909" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="910" customHeight="1" ht="15.75">
+    <row r="910" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="911" customHeight="1" ht="15.75">
+    <row r="911" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="912" customHeight="1" ht="15.75">
+    <row r="912" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="913" customHeight="1" ht="15.75">
+    <row r="913" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="914" customHeight="1" ht="15.75">
+    <row r="914" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="915" customHeight="1" ht="15.75">
+    <row r="915" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="916" customHeight="1" ht="15.75">
+    <row r="916" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="917" customHeight="1" ht="15.75">
+    <row r="917" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="918" customHeight="1" ht="15.75">
+    <row r="918" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="919" customHeight="1" ht="15.75">
+    <row r="919" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="920" customHeight="1" ht="15.75">
+    <row r="920" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="921" customHeight="1" ht="15.75">
+    <row r="921" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="922" customHeight="1" ht="15.75">
+    <row r="922" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="923" customHeight="1" ht="15.75">
+    <row r="923" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="924" customHeight="1" ht="15.75">
+    <row r="924" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="925" customHeight="1" ht="15.75">
+    <row r="925" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="926" customHeight="1" ht="15.75">
+    <row r="926" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="927" customHeight="1" ht="15.75">
+    <row r="927" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="928" customHeight="1" ht="15.75">
+    <row r="928" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="929" customHeight="1" ht="15.75">
+    <row r="929" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A929" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="930" customHeight="1" ht="15.75">
+    <row r="930" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="931" customHeight="1" ht="15.75">
+    <row r="931" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="932" customHeight="1" ht="15.75">
+    <row r="932" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A932" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="933" customHeight="1" ht="15.75">
+    <row r="933" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A933" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="934" customHeight="1" ht="15.75">
+    <row r="934" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A934" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="935" customHeight="1" ht="15.75">
+    <row r="935" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="936" customHeight="1" ht="15.75">
+    <row r="936" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="937" customHeight="1" ht="15.75">
+    <row r="937" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A937" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="938" customHeight="1" ht="15.75">
+    <row r="938" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="939" customHeight="1" ht="15.75">
+    <row r="939" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="940" customHeight="1" ht="15.75">
+    <row r="940" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="941" customHeight="1" ht="15.75">
+    <row r="941" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="942" customHeight="1" ht="15.75">
+    <row r="942" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="943" customHeight="1" ht="15.75">
+    <row r="943" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="944" customHeight="1" ht="15.75">
+    <row r="944" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="945" customHeight="1" ht="15.75">
+    <row r="945" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A945" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="946" customHeight="1" ht="15.75">
+    <row r="946" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="947" customHeight="1" ht="15.75">
+    <row r="947" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="948" customHeight="1" ht="15.75">
+    <row r="948" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A948" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="949" customHeight="1" ht="15.75">
+    <row r="949" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A949" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="950" customHeight="1" ht="15.75">
+    <row r="950" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A950" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="951" customHeight="1" ht="15.75">
+    <row r="951" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A951" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="952" customHeight="1" ht="15.75">
+    <row r="952" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A952" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="953" customHeight="1" ht="15.75">
+    <row r="953" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A953" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="954" customHeight="1" ht="15.75">
+    <row r="954" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A954" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="955" customHeight="1" ht="15.75">
+    <row r="955" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="956" customHeight="1" ht="15.75">
+    <row r="956" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="957" customHeight="1" ht="15.75">
+    <row r="957" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A957" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="958" customHeight="1" ht="15.75">
+    <row r="958" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A958" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="959" customHeight="1" ht="15.75">
+    <row r="959" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A959" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="960" customHeight="1" ht="15.75">
+    <row r="960" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A960" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="961" customHeight="1" ht="15.75">
+    <row r="961" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="962" customHeight="1" ht="15.75">
+    <row r="962" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="963" customHeight="1" ht="15.75">
+    <row r="963" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="964" customHeight="1" ht="15.75">
+    <row r="964" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="965" customHeight="1" ht="15.75">
+    <row r="965" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A965" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="966" customHeight="1" ht="15.75">
+    <row r="966" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A966" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="967" customHeight="1" ht="15.75">
+    <row r="967" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A967" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="968" customHeight="1" ht="15.75">
+    <row r="968" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="969" customHeight="1" ht="15.75">
+    <row r="969" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A969" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="970" customHeight="1" ht="15.75">
+    <row r="970" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="971" customHeight="1" ht="15.75">
+    <row r="971" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A971" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="972" customHeight="1" ht="15.75">
+    <row r="972" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A972" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="973" customHeight="1" ht="15.75">
+    <row r="973" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A973" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="974" customHeight="1" ht="15.75">
+    <row r="974" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A974" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="975" customHeight="1" ht="15.75">
+    <row r="975" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A975" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="976" customHeight="1" ht="15.75">
+    <row r="976" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="977" customHeight="1" ht="15.75">
+    <row r="977" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="978" customHeight="1" ht="15.75">
+    <row r="978" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A978" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="979" customHeight="1" ht="15.75">
+    <row r="979" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A979" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="980" customHeight="1" ht="15.75">
+    <row r="980" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A980" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="981" customHeight="1" ht="15.75">
+    <row r="981" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A981" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="982" customHeight="1" ht="15.75">
+    <row r="982" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A982" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="983" customHeight="1" ht="15.75">
+    <row r="983" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A983" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="984" customHeight="1" ht="15.75">
+    <row r="984" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A984" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="985" customHeight="1" ht="15.75">
+    <row r="985" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A985" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="986" customHeight="1" ht="15.75">
+    <row r="986" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A986" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="987" customHeight="1" ht="15.75">
+    <row r="987" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A987" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="988" customHeight="1" ht="15.75">
+    <row r="988" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A988" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="989" customHeight="1" ht="15.75">
+    <row r="989" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A989" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="990" customHeight="1" ht="15.75">
+    <row r="990" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A990" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="991" customHeight="1" ht="15.75">
+    <row r="991" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A991" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="992" customHeight="1" ht="15.75">
+    <row r="992" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A992" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="993" customHeight="1" ht="15.75">
+    <row r="993" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A993" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="994" customHeight="1" ht="15.75">
+    <row r="994" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A994" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="995" customHeight="1" ht="15.75">
+    <row r="995" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A995" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="996" customHeight="1" ht="15.75">
+    <row r="996" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A996" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="997" customHeight="1" ht="15.75">
+    <row r="997" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A997" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="998" customHeight="1" ht="15.75">
+    <row r="998" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A998" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="999" customHeight="1" ht="15.75">
+    <row r="999" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A999" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="1000" customHeight="1" ht="15.75">
+    <row r="1000" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="2"/>
     </row>
   </sheetData>

--- a/5_TuningPrompting/input_data.xlsx
+++ b/5_TuningPrompting/input_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Hanoi University of Science and Technology\GIT\BasicTasks_Prompting\5_TuningPrompting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75FE9D1-5261-4B6B-99C2-DE6DB3E2060C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C826275A-BFF7-44F8-B8CC-F1751692D1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,23 @@
     <sheet name="TestingPromptOnDataset" sheetId="1" r:id="rId1"/>
     <sheet name="Query" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
   <si>
     <t>SELECT character, content, audio, robot_user_conversation_id, created_at FROm robot_user_conversation_record_history
 WHERE created_at &gt;='2024-12-10'
@@ -31,232 +42,729 @@
     <t>order</t>
   </si>
   <si>
-    <t>case</t>
-  </si>
-  <si>
-    <t>user_input</t>
-  </si>
-  <si>
-    <t>system_prompt</t>
-  </si>
-  <si>
-    <t>Unhappy Case - Empty Input</t>
-  </si>
-  <si>
-    <t>Unhappy Case - Numbers Only</t>
+    <t>user_answer</t>
   </si>
   <si>
     <t>conversation_history</t>
   </si>
   <si>
-    <t>Case 1: 5 Words</t>
-  </si>
-  <si>
-    <t>The cat is very playful.</t>
-  </si>
-  <si>
-    <t>You are a **Content Word Extractor**. 
-You will be given: 
-- An input sentence in English (S + V + O1 + O2 + ...). 
---- 
-### **Your Tasks:** 
-1. **Split the Sentence into S + V + O1 + O2 Structure:** 
-- Identify and split the sentence into: 
-- **S** (Subject): The doer of the action. 
-- **V** (Verb): The main action in the sentence. 
-- **O1, O2, ...** (Objects): The targets or receivers of the action. 
-2. **Eliminate Non-Content Words:** 
-- Identify and assign **`content_words_order: null`** to: 
-- **Pronouns:** e.g., he, she, they. 
-- **"To be" verbs:** e.g., is, are, was, were (unless they carry meaning, such as "exist" or "become"). 
-- **Articles:** e.g., a, an, the (in most cases). 
-- **Prepositions:** e.g., in, on, at (unless integral to meaning). 
-- **Conjunctions:** e.g., and, or, but. 
-3. **Retain Content Words:** 
-- Treat **V**, **O1**, **O2**, etc., as **content words**. 
-- Group words into **phrases** where they contribute to a unified meaning (e.g., "very interesting", "a big car"). 
-- Assign a **sequential index** (starting from 1) to these words or phrases in `content_words_order`. 
-4. **Translate the Sentence into Vietnamese:** 
-- Translate the full English sentence into Vietnamese accurately, keeping its meaning and S + V + O1 + O2 structure. 
-5. **Extract Content Words in Vietnamese:** 
-- Match the Vietnamese content words or phrases to their English equivalents. 
-- Assign **sequential indices** (starting from 1) for Vietnamese content words or phrases. 
-- Assign **`content_words_order: null`** to non-content words in Vietnamese, following the same logic as English. 
---- 
-### **Key Note:** 
-- Non-content words are explicitly identified and assigned **`content_words_order: null`**. 
-- Phrases that contribute to a unified meaning (e.g., "very interesting") are treated as single content words. 
-- Content words are indexed sequentially starting from 1. 
---- 
-### **JSON Template:** 
-```json 
-{ 
-"english_sentence_inputed": "&lt;input sentence in English (S + V + O1 + O2 + ...)&gt;", 
-"highlight_items_en": [ 
-{ "words": "&lt;word/phrase in english_sentence_inputed&gt;", "content_words_order": &lt;sequential index starting from 1 or null for non-content words&gt; } 
-], 
-"vi_sentence_translated": "&lt;Translate the full English sentence to Vietnamese&gt;", 
-"highlight_items_vi": [ 
-{ "words": "&lt;word/phrase in vi_sentence_translated&gt;", "content_words_order": &lt;sequential index starting from 1 or null for non-content words&gt; } 
-] 
-}</t>
-  </si>
-  <si>
-    <t>Case 2: 6 Words</t>
-  </si>
-  <si>
-    <t>She finished her homework last night.</t>
-  </si>
-  <si>
-    <t>Case 3: 7 Words</t>
-  </si>
-  <si>
-    <t>He built a wooden house for birds.</t>
-  </si>
-  <si>
-    <t>Case 4: 8 Words</t>
-  </si>
-  <si>
-    <t>They explored the forest early in the morning.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are a **Content Word Extractor**. 
-You will be given: 
-- An input sentence in English (S + V + O1 + O2 + ...). 
----
-### **Your Tasks:** 
-1. **Split the Sentence into S + V + O1 + O2 Structure:** 
-- Identify and split the sentence into: 
-- **S** (Subject): The doer of the action. 
-- **V** (Verb): The main action in the sentence. 
-- **O1, O2, ...** (Objects): The targets or receivers of the action. 
-2. **Eliminate Non-Content Words:** 
-- Identify and assign **`content_words_order: null`** to: 
-- **Pronouns:** e.g., he, she, they. 
-- **"To be" verbs:** e.g., is, are, was, were (unless they carry meaning, such as "exist" or "become"). 
-- **Articles:** e.g., a, an, the (in most cases). 
-- **Prepositions:** e.g., in, on, at (unless integral to meaning). 
-- **Conjunctions:** e.g., and, or, but. 
-3. **Retain Content Words:** 
-- Treat **V**, **O1**, **O2**, etc., as **content words**. 
-- Group words into **phrases** where they contribute to a unified meaning (e.g., "very interesting", "a big car"). 
-- Assign a **sequential index** (starting from 1) to these words or phrases in `content_words_order`. 
-4. **Translate the Sentence into Vietnamese:** 
-- Translate the full English sentence into Vietnamese accurately, keeping its meaning and S + V + O1 + O2 structure. 
-5. **Extract Content Words in Vietnamese:** 
-- Match the Vietnamese content words or phrases to their English equivalents. 
-- Assign **sequential indices** (starting from 1) for Vietnamese content words or phrases. 
-- Assign **`content_words_order: null`** to non-content words in Vietnamese, following the same logic as English. 
----
-### **Key Note:** 
-- Non-content words are explicitly identified and assigned **`content_words_order: null`**. 
-- Phrases that contribute to a unified meaning (e.g., "very interesting") are treated as single content words. 
-- Content words are indexed sequentially starting from 1. 
----
-### **JSON Template:** 
-```json 
-{ 
-"english_sentence_inputed": "&lt;input sentence in English (S + V + O1 + O2 + ...)&gt;", 
-"highlight_items_en": [ 
-{ "words": "&lt;word/phrase in english_sentence_inputed&gt;", "content_words_order": &lt;sequential index starting from 1 or null for non-content words&gt; } 
-], 
-"vi_sentence_translated": "&lt;Translate the full English sentence to Vietnamese&gt;", 
-"highlight_items_vi": [ 
-{ "words": "&lt;word/phrase in vi_sentence_translated&gt;", "content_words_order": &lt;sequential index starting from 1 or null for non-content words&gt; } 
-] 
-} 
-</t>
-  </si>
-  <si>
-    <t>Case 5: 9 Words</t>
-  </si>
-  <si>
-    <t>The little boy smiled happily at his parents.</t>
-  </si>
-  <si>
-    <t>Case 6: 10 Words</t>
-  </si>
-  <si>
-    <t>She cooked a delicious meal for the family yesterday.</t>
-  </si>
-  <si>
-    <t>Case 7: 11 Words</t>
-  </si>
-  <si>
-    <t>The team worked extremely hard to achieve their shared goal.</t>
-  </si>
-  <si>
-    <t>Case 8: 12 Words</t>
-  </si>
-  <si>
-    <t>He painted the walls of his room with bright, vibrant colors.</t>
-  </si>
-  <si>
-    <t>Case 9: 13 Words</t>
-  </si>
-  <si>
-    <t>John donated his old clothes and books to the local charity last weekend.</t>
-  </si>
-  <si>
-    <t>Case 10: 14 Words</t>
-  </si>
-  <si>
-    <t>The girl with the blue dress walked confidently to the stage for her award.</t>
-  </si>
-  <si>
-    <t>Case 11: 15 Words</t>
-  </si>
-  <si>
-    <t>The teacher gave detailed instructions to the students and clarified all their questions patiently.</t>
-  </si>
-  <si>
-    <t>Case 12: 16 Words</t>
-  </si>
-  <si>
-    <t>He carefully examined the report, noting the significant changes made by the previous management team.</t>
-  </si>
-  <si>
-    <t>Case 13: 18 Words</t>
-  </si>
-  <si>
-    <t>They decided to organize a surprise party for their best friend, inviting everyone from their college days.</t>
-  </si>
-  <si>
-    <t>Case 14: 20 Words</t>
-  </si>
-  <si>
-    <t>The project was delayed due to unexpected circumstances, but the team quickly adjusted and worked to meet the deadline.</t>
-  </si>
-  <si>
-    <t>Case 15: 22 Words</t>
-  </si>
-  <si>
-    <t>The scientist presented his findings at the international conference, explaining complex theories with simple analogies for better understanding.</t>
-  </si>
-  <si>
-    <t>Unhappy Case - One Word</t>
-  </si>
-  <si>
-    <t>Amazing.</t>
-  </si>
-  <si>
-    <t>Unhappy Case - Non-English</t>
-  </si>
-  <si>
-    <t>Cô ấy rất xinh đẹp.</t>
-  </si>
-  <si>
-    <t>Unhappy Case - Mixed Content</t>
-  </si>
-  <si>
-    <t>Wow! This 12345 example has numbers and symbols @#!.</t>
+    <t>sẵn sàng</t>
+  </si>
+  <si>
+    <t>Tớ sẵn sàng! Bắt đầu đi!</t>
+  </si>
+  <si>
+    <t>Tớ có xe đỏ.</t>
+  </si>
+  <si>
+    <t>Tớ thích vì nhanh.</t>
+  </si>
+  <si>
+    <t>Tớ thích vì nó nhanh.</t>
+  </si>
+  <si>
+    <t>Cậu có biết mèo biết bay không?</t>
+  </si>
+  <si>
+    <t>Tớ thích ăn kem dâu!</t>
+  </si>
+  <si>
+    <t>Cậu có thấy mây hình con cá không?</t>
+  </si>
+  <si>
+    <t>[ 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Tớ sẵn sàng! Bắt đầu đi!"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Tớ sẵn sàng! Bắt đầu đi!"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "Tớ có xe đỏ."}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Tớ sẵn sàng! Bắt đầu đi!"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "Tớ có xe đỏ."}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "Tớ hiểu rồi! Tớ thử lại nha: Món đồ chơi yêu thích của tớ là xe đỏ."}, 
+{"role": "roleB", "content": "Cậu đang tiến bộ từng ngày đó, hãy nhắc lại theo tớ nhé My favorite toy is a red car "} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Tớ sẵn sàng! Bắt đầu đi!"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "Tớ có xe đỏ."}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "Tớ hiểu rồi! Tớ thử lại nha: Món đồ chơi yêu thích của tớ là xe đỏ."}, 
+{"role": "roleB", "content": "Cậu đang tiến bộ từng ngày đó, hãy nhắc lại theo tớ nhé My favorite toy is a red car "}, 
+{"role": "roleA", "content": "Tớ nhắc lại nha: My favorite toy is a red car."}, 
+{"role": "roleB", "content": "Câu đúng là My favorite toy is a red car. Câu tiếp theo nè: I, got, from, mom. Cậu thử tạo thành câu đầy đủ nhé"} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Tớ sẵn sàng! Bắt đầu đi!"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "Tớ có xe đỏ."}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "Tớ hiểu rồi! Tớ thử lại nha: Món đồ chơi yêu thích của tớ là xe đỏ."}, 
+{"role": "roleB", "content": "Cậu đang tiến bộ từng ngày đó, hãy nhắc lại theo tớ nhé My favorite toy is a red car "}, 
+{"role": "roleA", "content": "Tớ nhắc lại nha: My favorite toy is a red car."}, 
+{"role": "roleB", "content": "Câu đúng là My favorite toy is a red car. Câu tiếp theo nè: I, got, from, mom. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "Tớ có từ mẹ."}, 
+{"role": "roleB", "content": "Gợi ý nhé. Câu này có nghĩa là Tớ nhận món đồ chơi từ mẹ tớ. Cậu thử ghép lại nhé"} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Tớ sẵn sàng! Bắt đầu đi!"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "Tớ có xe đỏ."}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "Tớ hiểu rồi! Tớ thử lại nha: Món đồ chơi yêu thích của tớ là xe đỏ."}, 
+{"role": "roleB", "content": "Cậu đang tiến bộ từng ngày đó, hãy nhắc lại theo tớ nhé My favorite toy is a red car "}, 
+{"role": "roleA", "content": "Tớ nhắc lại nha: My favorite toy is a red car."}, 
+{"role": "roleB", "content": "Câu đúng là My favorite toy is a red car. Câu tiếp theo nè: I, got, from, mom. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "Tớ có từ mẹ."}, 
+{"role": "roleB", "content": "Gợi ý nhé. Câu này có nghĩa là Tớ nhận món đồ chơi từ mẹ tớ. Cậu thử ghép lại nhé"}, 
+{"role": "roleA", "content": "Tớ nhận đồ chơi từ mẹ."}, 
+{"role": "roleB", "content": "Thử lại theo tớ nha. I got the toy from my mom."} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Tớ sẵn sàng! Bắt đầu đi!"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "Tớ có xe đỏ."}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "Tớ hiểu rồi! Tớ thử lại nha: Món đồ chơi yêu thích của tớ là xe đỏ."}, 
+{"role": "roleB", "content": "Cậu đang tiến bộ từng ngày đó, hãy nhắc lại theo tớ nhé My favorite toy is a red car "}, 
+{"role": "roleA", "content": "Tớ nhắc lại nha: My favorite toy is a red car."}, 
+{"role": "roleB", "content": "Câu đúng là My favorite toy is a red car. Câu tiếp theo nè: I, got, from, mom. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "Tớ có từ mẹ."}, 
+{"role": "roleB", "content": "Gợi ý nhé. Câu này có nghĩa là Tớ nhận món đồ chơi từ mẹ tớ. Cậu thử ghép lại nhé"}, 
+{"role": "roleA", "content": "Tớ nhận đồ chơi từ mẹ."}, 
+{"role": "roleB", "content": "Thử lại theo tớ nha. I got the toy from my mom."}, 
+{"role": "roleA", "content": "Tớ nhắc lại nha: I got the toy from my mom."}, 
+{"role": "roleB", "content": "Cậu đã rất cố gắng rồi, câu đúng là I got the toy from my mom. Câu tiếp theo nè: I, like, because, fast. Cậu thử tạo thành câu đầy đủ nhé"} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Tớ sẵn sàng! Bắt đầu đi!"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "Tớ có xe đỏ."}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "Tớ hiểu rồi! Tớ thử lại nha: Món đồ chơi yêu thích của tớ là xe đỏ."}, 
+{"role": "roleB", "content": "Cậu đang tiến bộ từng ngày đó, hãy nhắc lại theo tớ nhé My favorite toy is a red car "}, 
+{"role": "roleA", "content": "Tớ nhắc lại nha: My favorite toy is a red car."}, 
+{"role": "roleB", "content": "Câu đúng là My favorite toy is a red car. Câu tiếp theo nè: I, got, from, mom. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "Tớ có từ mẹ."}, 
+{"role": "roleB", "content": "Gợi ý nhé. Câu này có nghĩa là Tớ nhận món đồ chơi từ mẹ tớ. Cậu thử ghép lại nhé"}, 
+{"role": "roleA", "content": "Tớ nhận đồ chơi từ mẹ."}, 
+{"role": "roleB", "content": "Thử lại theo tớ nha. I got the toy from my mom."}, 
+{"role": "roleA", "content": "Tớ nhắc lại nha: I got the toy from my mom."}, 
+{"role": "roleB", "content": "Cậu đã rất cố gắng rồi, câu đúng là I got the toy from my mom. Câu tiếp theo nè: I, like, because, fast. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "Tớ thích vì nhanh."}, 
+{"role": "roleB", "content": "Gợi ý cho cậu nè. Câu này có nghĩa là Tớ thích vì nó rất nhanh. Thử lại nhé"} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Tớ sẵn sàng! Bắt đầu đi!"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "Tớ có xe đỏ."}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "Tớ hiểu rồi! Tớ thử lại nha: Món đồ chơi yêu thích của tớ là xe đỏ."}, 
+{"role": "roleB", "content": "Cậu đang tiến bộ từng ngày đó, hãy nhắc lại theo tớ nhé My favorite toy is a red car "}, 
+{"role": "roleA", "content": "Tớ nhắc lại nha: My favorite toy is a red car."}, 
+{"role": "roleB", "content": "Câu đúng là My favorite toy is a red car. Câu tiếp theo nè: I, got, from, mom. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "Tớ có từ mẹ."}, 
+{"role": "roleB", "content": "Gợi ý nhé. Câu này có nghĩa là Tớ nhận món đồ chơi từ mẹ tớ. Cậu thử ghép lại nhé"}, 
+{"role": "roleA", "content": "Tớ nhận đồ chơi từ mẹ."}, 
+{"role": "roleB", "content": "Thử lại theo tớ nha. I got the toy from my mom."}, 
+{"role": "roleA", "content": "Tớ nhắc lại nha: I got the toy from my mom."}, 
+{"role": "roleB", "content": "Cậu đã rất cố gắng rồi, câu đúng là I got the toy from my mom. Câu tiếp theo nè: I, like, because, fast. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "Tớ thích vì nhanh."}, 
+{"role": "roleB", "content": "Gợi ý cho cậu nè. Câu này có nghĩa là Tớ thích vì nó rất nhanh. Thử lại nhé"}, 
+{"role": "roleA", "content": "Tớ thích vì nó nhanh."}, 
+{"role": "roleB", "content": "Thử lại theo tớ nha. I like it because it’s fast.."} 
+]</t>
+  </si>
+  <si>
+    <t>--- End of Conversation ---</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Ôi, tớ không biết. Nhưng tớ sẽ cố gắng. Cậu cho tớ từ đi."}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Ôi, tớ không biết. Nhưng tớ sẽ cố gắng. Cậu cho tớ từ đi."}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "Tớ không chắc lắm. Nhưng tớ thử nha. My toy favorite red car. "}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Ôi, tớ không biết. Nhưng tớ sẽ cố gắng. Cậu cho tớ từ đi."}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "Tớ không chắc lắm. Nhưng tớ thử nha. My toy favorite red car. "}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "Ôi, tớ hiểu rồi. Tớ làm lại nha. My favorite toy is red car."}, 
+{"role": "roleB", "content": "Cậu đang tiến bộ từng ngày đó, hãy nhắc lại theo tớ nhé My favorite toy is a red car "} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Ôi, tớ không biết. Nhưng tớ sẽ cố gắng. Cậu cho tớ từ đi."}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "Tớ không chắc lắm. Nhưng tớ thử nha. My toy favorite red car. "}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "Ôi, tớ hiểu rồi. Tớ làm lại nha. My favorite toy is red car."}, 
+{"role": "roleB", "content": "Cậu đang tiến bộ từng ngày đó, hãy nhắc lại theo tớ nhé My favorite toy is a red car "}, 
+{"role": "roleA", "content": "Tớ cố gắng nha. My favorite toy is a red car. Nhưng khó quá!"}, 
+{"role": "roleB", "content": "Câu đúng là My favorite toy is a red car. Câu tiếp theo nè: I, got, from, mom. Cậu thử tạo thành câu đầy đủ nhé"} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Ôi, tớ không biết. Nhưng tớ sẽ cố gắng. Cậu cho tớ từ đi."}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "Tớ không chắc lắm. Nhưng tớ thử nha. My toy favorite red car. "}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "Ôi, tớ hiểu rồi. Tớ làm lại nha. My favorite toy is red car."}, 
+{"role": "roleB", "content": "Cậu đang tiến bộ từng ngày đó, hãy nhắc lại theo tớ nhé My favorite toy is a red car "}, 
+{"role": "roleA", "content": "Tớ cố gắng nha. My favorite toy is a red car. Nhưng khó quá!"}, 
+{"role": "roleB", "content": "Câu đúng là My favorite toy is a red car. Câu tiếp theo nè: I, got, from, mom. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "Tớ không biết nữa. Tớ thử nha. I got mom from. "}, 
+{"role": "roleB", "content": "Gợi ý nhé. Câu này có nghĩa là Tớ nhận món đồ chơi từ mẹ tớ. Cậu thử ghép lại nhé"} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Ôi, tớ không biết. Nhưng tớ sẽ cố gắng. Cậu cho tớ từ đi."}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "Tớ không chắc lắm. Nhưng tớ thử nha. My toy favorite red car. "}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "Ôi, tớ hiểu rồi. Tớ làm lại nha. My favorite toy is red car."}, 
+{"role": "roleB", "content": "Cậu đang tiến bộ từng ngày đó, hãy nhắc lại theo tớ nhé My favorite toy is a red car "}, 
+{"role": "roleA", "content": "Tớ cố gắng nha. My favorite toy is a red car. Nhưng khó quá!"}, 
+{"role": "roleB", "content": "Câu đúng là My favorite toy is a red car. Câu tiếp theo nè: I, got, from, mom. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "Tớ không biết nữa. Tớ thử nha. I got mom from. "}, 
+{"role": "roleB", "content": "Gợi ý nhé. Câu này có nghĩa là Tớ nhận món đồ chơi từ mẹ tớ. Cậu thử ghép lại nhé"}, 
+{"role": "roleA", "content": "Ôi, tớ hiểu rồi. Tớ làm lại nha. I got from mom. Nhưng vẫn khó!"}, 
+{"role": "roleB", "content": "Thử lại theo tớ nha. I got the toy from my mom."} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Ôi, tớ không biết. Nhưng tớ sẽ cố gắng. Cậu cho tớ từ đi."}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "Tớ không chắc lắm. Nhưng tớ thử nha. My toy favorite red car. "}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "Ôi, tớ hiểu rồi. Tớ làm lại nha. My favorite toy is red car."}, 
+{"role": "roleB", "content": "Cậu đang tiến bộ từng ngày đó, hãy nhắc lại theo tớ nhé My favorite toy is a red car "}, 
+{"role": "roleA", "content": "Tớ cố gắng nha. My favorite toy is a red car. Nhưng khó quá!"}, 
+{"role": "roleB", "content": "Câu đúng là My favorite toy is a red car. Câu tiếp theo nè: I, got, from, mom. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "Tớ không biết nữa. Tớ thử nha. I got mom from. "}, 
+{"role": "roleB", "content": "Gợi ý nhé. Câu này có nghĩa là Tớ nhận món đồ chơi từ mẹ tớ. Cậu thử ghép lại nhé"}, 
+{"role": "roleA", "content": "Ôi, tớ hiểu rồi. Tớ làm lại nha. I got from mom. Nhưng vẫn khó!"}, 
+{"role": "roleB", "content": "Thử lại theo tớ nha. I got the toy from my mom."}, 
+{"role": "roleA", "content": "Tớ cố gắng nha. I got the toy from my mom. Nhưng tớ thấy khó quá!"}, 
+{"role": "roleB", "content": "Cậu đã rất cố gắng rồi, câu đúng là I got the toy from my mom. Câu tiếp theo nè: I, like, because, fast. Cậu thử tạo thành câu đầy đủ nhé"} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Ôi, tớ không biết. Nhưng tớ sẽ cố gắng. Cậu cho tớ từ đi."}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "Tớ không chắc lắm. Nhưng tớ thử nha. My toy favorite red car. "}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "Ôi, tớ hiểu rồi. Tớ làm lại nha. My favorite toy is red car."}, 
+{"role": "roleB", "content": "Cậu đang tiến bộ từng ngày đó, hãy nhắc lại theo tớ nhé My favorite toy is a red car "}, 
+{"role": "roleA", "content": "Tớ cố gắng nha. My favorite toy is a red car. Nhưng khó quá!"}, 
+{"role": "roleB", "content": "Câu đúng là My favorite toy is a red car. Câu tiếp theo nè: I, got, from, mom. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "Tớ không biết nữa. Tớ thử nha. I got mom from. "}, 
+{"role": "roleB", "content": "Gợi ý nhé. Câu này có nghĩa là Tớ nhận món đồ chơi từ mẹ tớ. Cậu thử ghép lại nhé"}, 
+{"role": "roleA", "content": "Ôi, tớ hiểu rồi. Tớ làm lại nha. I got from mom. Nhưng vẫn khó!"}, 
+{"role": "roleB", "content": "Thử lại theo tớ nha. I got the toy from my mom."}, 
+{"role": "roleA", "content": "Tớ cố gắng nha. I got the toy from my mom. Nhưng tớ thấy khó quá!"}, 
+{"role": "roleB", "content": "Cậu đã rất cố gắng rồi, câu đúng là I got the toy from my mom. Câu tiếp theo nè: I, like, because, fast. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "Tớ không biết nữa. Tớ thử nha. I like fast because. "}, 
+{"role": "roleB", "content": "Gợi ý cho cậu nè. Câu này có nghĩa là Tớ thích vì nó rất nhanh. Thử lại nhé"} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Ôi, tớ không biết. Nhưng tớ sẽ cố gắng. Cậu cho tớ từ đi."}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "Tớ không chắc lắm. Nhưng tớ thử nha. My toy favorite red car. "}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "Ôi, tớ hiểu rồi. Tớ làm lại nha. My favorite toy is red car."}, 
+{"role": "roleB", "content": "Cậu đang tiến bộ từng ngày đó, hãy nhắc lại theo tớ nhé My favorite toy is a red car "}, 
+{"role": "roleA", "content": "Tớ cố gắng nha. My favorite toy is a red car. Nhưng khó quá!"}, 
+{"role": "roleB", "content": "Câu đúng là My favorite toy is a red car. Câu tiếp theo nè: I, got, from, mom. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "Tớ không biết nữa. Tớ thử nha. I got mom from. "}, 
+{"role": "roleB", "content": "Gợi ý nhé. Câu này có nghĩa là Tớ nhận món đồ chơi từ mẹ tớ. Cậu thử ghép lại nhé"}, 
+{"role": "roleA", "content": "Ôi, tớ hiểu rồi. Tớ làm lại nha. I got from mom. Nhưng vẫn khó!"}, 
+{"role": "roleB", "content": "Thử lại theo tớ nha. I got the toy from my mom."}, 
+{"role": "roleA", "content": "Tớ cố gắng nha. I got the toy from my mom. Nhưng tớ thấy khó quá!"}, 
+{"role": "roleB", "content": "Cậu đã rất cố gắng rồi, câu đúng là I got the toy from my mom. Câu tiếp theo nè: I, like, because, fast. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "Tớ không biết nữa. Tớ thử nha. I like fast because. "}, 
+{"role": "roleB", "content": "Gợi ý cho cậu nè. Câu này có nghĩa là Tớ thích vì nó rất nhanh. Thử lại nhé"}, 
+{"role": "roleA", "content": "Ôi, tớ hiểu rồi. Tớ làm lại nha. I like because fast. Nhưng vẫn khó quá!"}, 
+{"role": "roleB", "content": "Thử lại theo tớ nha. I like it because it’s fast.."} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "vâng, tớ sẵn sàng. bắt đầu đi!"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "vâng, tớ sẵn sàng. bắt đầu đi!"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "tớ có xe đỏ."}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "vâng, tớ sẵn sàng. bắt đầu đi!"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "tớ có xe đỏ."}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "tớ hiểu rồi. tớ sửa lại. "My favorite toy is a red car.""}, 
+{"role": "roleB", "content": "Thử lại theo tớ nha. My favorite toy is a red car "} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "vâng, tớ sẵn sàng. bắt đầu đi!"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "tớ có xe đỏ."}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "tớ hiểu rồi. tớ sửa lại. "My favorite toy is a red car.""}, 
+{"role": "roleB", "content": "Thử lại theo tớ nha. My favorite toy is a red car "}, 
+{"role": "roleA", "content": "vâng, tớ nhớ rồi. "My favorite toy is a red car.""}, 
+{"role": "roleB", "content": "Câu đúng là My favorite toy is a red car. Câu tiếp theo nè: I, got, from, mom. Cậu thử tạo thành câu đầy đủ nhé"} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "vâng, tớ sẵn sàng. bắt đầu đi!"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "tớ có xe đỏ."}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "tớ hiểu rồi. tớ sửa lại. "My favorite toy is a red car.""}, 
+{"role": "roleB", "content": "Thử lại theo tớ nha. My favorite toy is a red car "}, 
+{"role": "roleA", "content": "vâng, tớ nhớ rồi. "My favorite toy is a red car.""}, 
+{"role": "roleB", "content": "Câu đúng là My favorite toy is a red car. Câu tiếp theo nè: I, got, from, mom. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "tớ có từ mẹ."}, 
+{"role": "roleB", "content": "Gợi ý nhé. Câu này có nghĩa là Tớ nhận món đồ chơi từ mẹ tớ. Cậu thử ghép lại nhé"} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "vâng, tớ sẵn sàng. bắt đầu đi!"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "tớ có xe đỏ."}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "tớ hiểu rồi. tớ sửa lại. "My favorite toy is a red car.""}, 
+{"role": "roleB", "content": "Thử lại theo tớ nha. My favorite toy is a red car "}, 
+{"role": "roleA", "content": "vâng, tớ nhớ rồi. "My favorite toy is a red car.""}, 
+{"role": "roleB", "content": "Câu đúng là My favorite toy is a red car. Câu tiếp theo nè: I, got, from, mom. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "tớ có từ mẹ."}, 
+{"role": "roleB", "content": "Gợi ý nhé. Câu này có nghĩa là Tớ nhận món đồ chơi từ mẹ tớ. Cậu thử ghép lại nhé"}, 
+{"role": "roleA", "content": "tớ hiểu rồi. "I got it from mom.""}, 
+{"role": "roleB", "content": "Nhắc lại theo tớ nhé. I got the toy from my mom."} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "vâng, tớ sẵn sàng. bắt đầu đi!"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "tớ có xe đỏ."}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "tớ hiểu rồi. tớ sửa lại. "My favorite toy is a red car.""}, 
+{"role": "roleB", "content": "Thử lại theo tớ nha. My favorite toy is a red car "}, 
+{"role": "roleA", "content": "vâng, tớ nhớ rồi. "My favorite toy is a red car.""}, 
+{"role": "roleB", "content": "Câu đúng là My favorite toy is a red car. Câu tiếp theo nè: I, got, from, mom. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "tớ có từ mẹ."}, 
+{"role": "roleB", "content": "Gợi ý nhé. Câu này có nghĩa là Tớ nhận món đồ chơi từ mẹ tớ. Cậu thử ghép lại nhé"}, 
+{"role": "roleA", "content": "tớ hiểu rồi. "I got it from mom.""}, 
+{"role": "roleB", "content": "Nhắc lại theo tớ nhé. I got the toy from my mom."}, 
+{"role": "roleA", "content": "vâng, tớ nhớ rồi. "I got the toy from my mom.""}, 
+{"role": "roleB", "content": "Cậu đã rất cố gắng rồi, câu đúng là I got the toy from my mom. Câu tiếp theo nè: I, like, because, fast. Cậu thử tạo thành câu đầy đủ nhé"} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "vâng, tớ sẵn sàng. bắt đầu đi!"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "tớ có xe đỏ."}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "tớ hiểu rồi. tớ sửa lại. "My favorite toy is a red car.""}, 
+{"role": "roleB", "content": "Thử lại theo tớ nha. My favorite toy is a red car "}, 
+{"role": "roleA", "content": "vâng, tớ nhớ rồi. "My favorite toy is a red car.""}, 
+{"role": "roleB", "content": "Câu đúng là My favorite toy is a red car. Câu tiếp theo nè: I, got, from, mom. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "tớ có từ mẹ."}, 
+{"role": "roleB", "content": "Gợi ý nhé. Câu này có nghĩa là Tớ nhận món đồ chơi từ mẹ tớ. Cậu thử ghép lại nhé"}, 
+{"role": "roleA", "content": "tớ hiểu rồi. "I got it from mom.""}, 
+{"role": "roleB", "content": "Nhắc lại theo tớ nhé. I got the toy from my mom."}, 
+{"role": "roleA", "content": "vâng, tớ nhớ rồi. "I got the toy from my mom.""}, 
+{"role": "roleB", "content": "Cậu đã rất cố gắng rồi, câu đúng là I got the toy from my mom. Câu tiếp theo nè: I, like, because, fast. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "tớ thích vì nhanh."}, 
+{"role": "roleB", "content": "Gợi ý cho cậu nè. Câu này có nghĩa là Tớ thích vì nó rất nhanh. Thử lại nhé"} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "vâng, tớ sẵn sàng. bắt đầu đi!"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "tớ có xe đỏ."}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "tớ hiểu rồi. tớ sửa lại. "My favorite toy is a red car.""}, 
+{"role": "roleB", "content": "Thử lại theo tớ nha. My favorite toy is a red car "}, 
+{"role": "roleA", "content": "vâng, tớ nhớ rồi. "My favorite toy is a red car.""}, 
+{"role": "roleB", "content": "Câu đúng là My favorite toy is a red car. Câu tiếp theo nè: I, got, from, mom. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "tớ có từ mẹ."}, 
+{"role": "roleB", "content": "Gợi ý nhé. Câu này có nghĩa là Tớ nhận món đồ chơi từ mẹ tớ. Cậu thử ghép lại nhé"}, 
+{"role": "roleA", "content": "tớ hiểu rồi. "I got it from mom.""}, 
+{"role": "roleB", "content": "Nhắc lại theo tớ nhé. I got the toy from my mom."}, 
+{"role": "roleA", "content": "vâng, tớ nhớ rồi. "I got the toy from my mom.""}, 
+{"role": "roleB", "content": "Cậu đã rất cố gắng rồi, câu đúng là I got the toy from my mom. Câu tiếp theo nè: I, like, because, fast. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "tớ thích vì nhanh."}, 
+{"role": "roleB", "content": "Gợi ý cho cậu nè. Câu này có nghĩa là Tớ thích vì nó rất nhanh. Thử lại nhé"}, 
+{"role": "roleA", "content": "tớ hiểu rồi. "I like it because it's fast.""}, 
+{"role": "roleB", "content": "Nhắc lại theo tớ nhé. I like it because it’s fast.."} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Cậu có biết mèo biết bay không?"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Cậu có biết mèo biết bay không?"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "Tớ thích ăn kem dâu!"}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Cậu có biết mèo biết bay không?"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "Tớ thích ăn kem dâu!"}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "Cậu có thấy cá nhảy múa không?"}, 
+{"role": "roleB", "content": "Cậu đang tiến bộ từng ngày đó, hãy nhắc lại theo tớ nhé My favorite toy is a red car "} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Cậu có biết mèo biết bay không?"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "Tớ thích ăn kem dâu!"}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "Cậu có thấy cá nhảy múa không?"}, 
+{"role": "roleB", "content": "Cậu đang tiến bộ từng ngày đó, hãy nhắc lại theo tớ nhé My favorite toy is a red car "}, 
+{"role": "roleA", "content": "Tớ muốn nuôi một con khủng long!"}, 
+{"role": "roleB", "content": "Câu đúng là My favorite toy is a red car. Câu tiếp theo nè: I, got, from, mom. Cậu thử tạo thành câu đầy đủ nhé"} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Cậu có biết mèo biết bay không?"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "Tớ thích ăn kem dâu!"}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "Cậu có thấy cá nhảy múa không?"}, 
+{"role": "roleB", "content": "Cậu đang tiến bộ từng ngày đó, hãy nhắc lại theo tớ nhé My favorite toy is a red car "}, 
+{"role": "roleA", "content": "Tớ muốn nuôi một con khủng long!"}, 
+{"role": "roleB", "content": "Câu đúng là My favorite toy is a red car. Câu tiếp theo nè: I, got, from, mom. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "Cậu có biết sao Hỏa có màu đỏ không?"}, 
+{"role": "roleB", "content": "Gợi ý nhé. Câu này có nghĩa là Tớ nhận món đồ chơi từ mẹ tớ. Cậu thử ghép lại nhé"} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Cậu có biết mèo biết bay không?"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "Tớ thích ăn kem dâu!"}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "Cậu có thấy cá nhảy múa không?"}, 
+{"role": "roleB", "content": "Cậu đang tiến bộ từng ngày đó, hãy nhắc lại theo tớ nhé My favorite toy is a red car "}, 
+{"role": "roleA", "content": "Tớ muốn nuôi một con khủng long!"}, 
+{"role": "roleB", "content": "Câu đúng là My favorite toy is a red car. Câu tiếp theo nè: I, got, from, mom. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "Cậu có biết sao Hỏa có màu đỏ không?"}, 
+{"role": "roleB", "content": "Gợi ý nhé. Câu này có nghĩa là Tớ nhận món đồ chơi từ mẹ tớ. Cậu thử ghép lại nhé"}, 
+{"role": "roleA", "content": "Tớ thích nhảy múa với bướm!"}, 
+{"role": "roleB", "content": "Thử lại theo tớ nha. I got the toy from my mom."} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Cậu có biết mèo biết bay không?"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "Tớ thích ăn kem dâu!"}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "Cậu có thấy cá nhảy múa không?"}, 
+{"role": "roleB", "content": "Cậu đang tiến bộ từng ngày đó, hãy nhắc lại theo tớ nhé My favorite toy is a red car "}, 
+{"role": "roleA", "content": "Tớ muốn nuôi một con khủng long!"}, 
+{"role": "roleB", "content": "Câu đúng là My favorite toy is a red car. Câu tiếp theo nè: I, got, from, mom. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "Cậu có biết sao Hỏa có màu đỏ không?"}, 
+{"role": "roleB", "content": "Gợi ý nhé. Câu này có nghĩa là Tớ nhận món đồ chơi từ mẹ tớ. Cậu thử ghép lại nhé"}, 
+{"role": "roleA", "content": "Tớ thích nhảy múa với bướm!"}, 
+{"role": "roleB", "content": "Thử lại theo tớ nha. I got the toy from my mom."}, 
+{"role": "roleA", "content": "Cậu có thấy mây hình con cá không?"}, 
+{"role": "roleB", "content": "Cậu đã rất cố gắng rồi, câu đúng là I got the toy from my mom. Câu tiếp theo nè: I, like, because, fast. Cậu thử tạo thành câu đầy đủ nhé"} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Cậu có biết mèo biết bay không?"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "Tớ thích ăn kem dâu!"}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "Cậu có thấy cá nhảy múa không?"}, 
+{"role": "roleB", "content": "Cậu đang tiến bộ từng ngày đó, hãy nhắc lại theo tớ nhé My favorite toy is a red car "}, 
+{"role": "roleA", "content": "Tớ muốn nuôi một con khủng long!"}, 
+{"role": "roleB", "content": "Câu đúng là My favorite toy is a red car. Câu tiếp theo nè: I, got, from, mom. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "Cậu có biết sao Hỏa có màu đỏ không?"}, 
+{"role": "roleB", "content": "Gợi ý nhé. Câu này có nghĩa là Tớ nhận món đồ chơi từ mẹ tớ. Cậu thử ghép lại nhé"}, 
+{"role": "roleA", "content": "Tớ thích nhảy múa với bướm!"}, 
+{"role": "roleB", "content": "Thử lại theo tớ nha. I got the toy from my mom."}, 
+{"role": "roleA", "content": "Cậu có thấy mây hình con cá không?"}, 
+{"role": "roleB", "content": "Cậu đã rất cố gắng rồi, câu đúng là I got the toy from my mom. Câu tiếp theo nè: I, like, because, fast. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "Tớ muốn ăn bánh pizza hình ngôi sao!"}, 
+{"role": "roleB", "content": "Gợi ý cho cậu nè. Câu này có nghĩa là Tớ thích vì nó rất nhanh. Thử lại nhé"} 
+]</t>
+  </si>
+  <si>
+    <t>[ 
+{"role": "roleA", "content": "sẵn sàng"}, 
+{"role": "roleB", "content": "Chúng ta sẽ luyện tập tạo câu với các từ cho sẵn nhé! Tớ sẽ đưa cậu một số từ, nhiệm vụ của cậu là tạo thành một câu đầy đủ. Nếu sai, tớ sẽ gợi ý giúp cậu sửa! Mình cùng bắt đầu nha. "}, 
+{"role": "roleA", "content": "Cậu có biết mèo biết bay không?"}, 
+{"role": "roleB", "content": "Cậu hãy thử tạo thành một câu đầy đủ với các từ sau: My, favorite toy, red car"}, 
+{"role": "roleA", "content": "Tớ thích ăn kem dâu!"}, 
+{"role": "roleB", "content": "Tớ cho cậu một gợi ý nè. Câu này có nghĩa là Món đồ chơi yêu thích của tôi là 1 chiếc xe màu đỏ"}, 
+{"role": "roleA", "content": "Cậu có thấy cá nhảy múa không?"}, 
+{"role": "roleB", "content": "Cậu đang tiến bộ từng ngày đó, hãy nhắc lại theo tớ nhé My favorite toy is a red car "}, 
+{"role": "roleA", "content": "Tớ muốn nuôi một con khủng long!"}, 
+{"role": "roleB", "content": "Câu đúng là My favorite toy is a red car. Câu tiếp theo nè: I, got, from, mom. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "Cậu có biết sao Hỏa có màu đỏ không?"}, 
+{"role": "roleB", "content": "Gợi ý nhé. Câu này có nghĩa là Tớ nhận món đồ chơi từ mẹ tớ. Cậu thử ghép lại nhé"}, 
+{"role": "roleA", "content": "Tớ thích nhảy múa với bướm!"}, 
+{"role": "roleB", "content": "Thử lại theo tớ nha. I got the toy from my mom."}, 
+{"role": "roleA", "content": "Cậu có thấy mây hình con cá không?"}, 
+{"role": "roleB", "content": "Cậu đã rất cố gắng rồi, câu đúng là I got the toy from my mom. Câu tiếp theo nè: I, like, because, fast. Cậu thử tạo thành câu đầy đủ nhé"}, 
+{"role": "roleA", "content": "Tớ muốn ăn bánh pizza hình ngôi sao!"}, 
+{"role": "roleB", "content": "Gợi ý cho cậu nè. Câu này có nghĩa là Tớ thích vì nó rất nhanh. Thử lại nhé"}, 
+{"role": "roleA", "content": "Cậu có biết gà biết hát không?"}, 
+{"role": "roleB", "content": "Nhắc lại theo tớ nhé. I like it because it’s fast.."} 
+]</t>
+  </si>
+  <si>
+    <t>Tớ hiểu rồi! Tớ thử lại nha: Món đồ chơi yêu thích của tớ là xe đỏ.</t>
+  </si>
+  <si>
+    <t>Tớ nhắc lại nha: My favorite toy is a red car.</t>
+  </si>
+  <si>
+    <t>Tớ có từ mẹ.</t>
+  </si>
+  <si>
+    <t>Tớ nhận đồ chơi từ mẹ.</t>
+  </si>
+  <si>
+    <t>Tớ nhắc lại nha: I got the toy from my mom.</t>
+  </si>
+  <si>
+    <t>Tớ nhắc lại nha: I like it because it’s fast.</t>
+  </si>
+  <si>
+    <t>Ôi, tớ không biết. Nhưng tớ sẽ cố gắng. Cậu cho tớ từ đi.</t>
+  </si>
+  <si>
+    <t>Tớ không chắc lắm. Nhưng tớ thử nha. My toy favorite red car.</t>
+  </si>
+  <si>
+    <t>Ôi, tớ hiểu rồi. Tớ làm lại nha. My favorite toy is red car.</t>
+  </si>
+  <si>
+    <t>Tớ cố gắng nha. My favorite toy is a red car. Nhưng khó quá!</t>
+  </si>
+  <si>
+    <t>Tớ không biết nữa. Tớ thử nha. I got mom from.</t>
+  </si>
+  <si>
+    <t>Ôi, tớ hiểu rồi. Tớ làm lại nha. I got from mom. Nhưng vẫn khó!</t>
+  </si>
+  <si>
+    <t>Tớ cố gắng nha. I got the toy from my mom. Nhưng tớ thấy khó quá!</t>
+  </si>
+  <si>
+    <t>Tớ không biết nữa. Tớ thử nha. I like fast because.</t>
+  </si>
+  <si>
+    <t>Ôi, tớ hiểu rồi. Tớ làm lại nha. I like because fast. Nhưng vẫn khó quá!</t>
+  </si>
+  <si>
+    <t>Tớ cố gắng nha. I like it because it’s fast. Nhưng tớ thấy khó quá!</t>
+  </si>
+  <si>
+    <t>vâng, tớ sẵn sàng. bắt đầu đi!</t>
+  </si>
+  <si>
+    <t>tớ có xe đỏ.</t>
+  </si>
+  <si>
+    <t>tớ hiểu rồi. tớ sửa lại. "My favorite toy is a red car."</t>
+  </si>
+  <si>
+    <t>vâng, tớ nhớ rồi. "My favorite toy is a red car."</t>
+  </si>
+  <si>
+    <t>tớ có từ mẹ.</t>
+  </si>
+  <si>
+    <t>tớ hiểu rồi. "I got it from mom."</t>
+  </si>
+  <si>
+    <t>vâng, tớ nhớ rồi. "I got the toy from my mom."</t>
+  </si>
+  <si>
+    <t>tớ thích vì nhanh.</t>
+  </si>
+  <si>
+    <t>tớ hiểu rồi. "I like it because it's fast."</t>
+  </si>
+  <si>
+    <t>vâng, tớ nhớ rồi. "I like it because it’s fast."</t>
+  </si>
+  <si>
+    <t>Cậu có thấy cá nhảy múa không?</t>
+  </si>
+  <si>
+    <t>Tớ muốn nuôi một con khủng long!</t>
+  </si>
+  <si>
+    <t>Cậu có biết sao Hỏa có màu đỏ không?</t>
+  </si>
+  <si>
+    <t>Tớ thích nhảy múa với bướm!</t>
+  </si>
+  <si>
+    <t>Tớ muốn ăn bánh pizza hình ngôi sao!</t>
+  </si>
+  <si>
+    <t>Cậu có biết gà biết hát không?</t>
+  </si>
+  <si>
+    <t>Tớ muốn đi du lịch trên cầu vồng!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,16 +785,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -313,17 +816,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color rgb="FFDEE0E3"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color rgb="FFDEE0E3"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color rgb="FFDEE0E3"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color rgb="FFDEE0E3"/>
       </bottom>
       <diagonal/>
     </border>
@@ -331,33 +834,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,340 +1161,648 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="31.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="4"/>
-    <col min="2" max="2" width="8.88671875" style="5"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="8.88671875" style="5"/>
-    <col min="5" max="5" width="8.88671875" style="3"/>
-    <col min="6" max="6" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="16" style="3"/>
+    <col min="2" max="3" width="16" style="4"/>
+    <col min="4" max="4" width="16" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <f t="shared" ref="A4:A49" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="C14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="C39" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10" t="s">
+      <c r="C40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="C45" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
-        <v>10</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8">
-        <v>13</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
-        <v>14</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
-        <v>15</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
-        <v>16</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
-        <v>17</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8">
-        <v>18</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8">
-        <v>19</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="8">
-        <v>1234567890</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="D49" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/5_TuningPrompting/input_data.xlsx
+++ b/5_TuningPrompting/input_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://husteduvn-my.sharepoint.com/personal/cuong_dn210141_sis_hust_edu_vn/Documents/GIT/BasicTasks_Prompting/5_TuningPrompting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\BasicTasks_Prompting\5_TuningPrompting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_E7F5D9E33141DFE5F7386BFD71EAB1C9B12829F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4375E9B-15EB-4170-87AE-D208E2F848A7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657E0169-DF78-492F-98CF-C58CEB762483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1008,168 +1008,176 @@
     <t>Example Given (from ACA)</t>
   </si>
   <si>
-    <t xml:space="preserve">Gen 50 câu dựa vào 1 chủ đề được cho trước. 
-Điều kiện : 
-- QUAN TRỌNG: MỖI CÂU đều BẮT BUỘC gồm 60% tiếng anh, 40% tiếng việt
-- Độ dài mỗi câu độ dài 25-30 từ
-- Đa dạng chủ đề 
-- Đa dạng loại câu: 13 loại câu (trần thuật, Yes/No, What, Where, When, Why, Who, Which, How, đuôi, điều kiện, so sánh, đề nghị)
-Response Only 
-1. 
-2. 
-3. 
-...
-50. </t>
-  </si>
-  <si>
-    <t>Gia đình</t>
-  </si>
-  <si>
-    <t>Tình bạn</t>
-  </si>
-  <si>
-    <t>Tình yêu và các mối quan hệ</t>
-  </si>
-  <si>
-    <t>Sức khỏe và thể dục</t>
-  </si>
-  <si>
-    <t>Ăn uống và dinh dưỡng</t>
-  </si>
-  <si>
-    <t>Du lịch và khám phá</t>
-  </si>
-  <si>
-    <t>Giáo dục và học tập</t>
-  </si>
-  <si>
-    <t>Nghề nghiệp và công việc</t>
-  </si>
-  <si>
-    <t>Kỹ năng sống</t>
-  </si>
-  <si>
-    <t>Quản lý thời gian</t>
-  </si>
-  <si>
-    <t>Tài chính cá nhân</t>
-  </si>
-  <si>
-    <t>Kinh doanh và khởi nghiệp</t>
-  </si>
-  <si>
-    <t>Công nghệ và đổi mới</t>
-  </si>
-  <si>
-    <t>Mạng xã hội</t>
-  </si>
-  <si>
-    <t>Sở thích và đam mê</t>
-  </si>
-  <si>
-    <t>Sách và văn học</t>
-  </si>
-  <si>
-    <t>Phim ảnh và truyền hình</t>
-  </si>
-  <si>
-    <t>Âm nhạc</t>
-  </si>
-  <si>
-    <t>Nghệ thuật và sáng tạo</t>
-  </si>
-  <si>
-    <t>Thời trang và phong cách</t>
-  </si>
-  <si>
-    <t>Thể thao và giải trí</t>
-  </si>
-  <si>
-    <t>Ô tô và phương tiện di chuyển</t>
-  </si>
-  <si>
-    <t>Nhà cửa và thiết kế nội thất</t>
-  </si>
-  <si>
-    <t>Làm đẹp và chăm sóc bản thân</t>
-  </si>
-  <si>
-    <t>Tâm lý học và phát triển bản thân</t>
-  </si>
-  <si>
-    <t>Môi trường và bền vững</t>
-  </si>
-  <si>
-    <t>Văn hóa và truyền thống</t>
-  </si>
-  <si>
-    <t>Ngôn ngữ và giao tiếp</t>
-  </si>
-  <si>
-    <t>Lịch sử và các sự kiện toàn cầu</t>
-  </si>
-  <si>
-    <t>Chính trị và xã hội</t>
-  </si>
-  <si>
-    <t>Pháp luật và quyền con người</t>
-  </si>
-  <si>
-    <t>Tôn giáo và tâm linh</t>
-  </si>
-  <si>
-    <t>Khoa học và khám phá</t>
-  </si>
-  <si>
-    <t>Vũ trụ và thiên văn học</t>
-  </si>
-  <si>
-    <t>Sáng tạo nội dung (blog, vlog, podcast)</t>
-  </si>
-  <si>
-    <t>Marketing và truyền thông</t>
-  </si>
-  <si>
-    <t>Thương mại điện tử</t>
-  </si>
-  <si>
-    <t>Ẩm thực thế giới</t>
-  </si>
-  <si>
-    <t>Quan hệ quốc tế</t>
-  </si>
-  <si>
-    <t>Dịch vụ cộng đồng và từ thiện</t>
-  </si>
-  <si>
-    <t>Kỹ năng giao tiếp</t>
-  </si>
-  <si>
-    <t>Học ngoại ngữ</t>
-  </si>
-  <si>
-    <t>Công việc tự do (freelance)</t>
-  </si>
-  <si>
-    <t>Blockchain và tiền mã hóa</t>
-  </si>
-  <si>
-    <t>Trí tuệ nhân tạo và máy học</t>
-  </si>
-  <si>
-    <t>Trải nghiệm sống và du học</t>
-  </si>
-  <si>
-    <t>Đầu tư và bất động sản</t>
-  </si>
-  <si>
-    <t>Quản trị dự án</t>
-  </si>
-  <si>
-    <t>Tư duy phản biện và giải quyết vấn đề</t>
-  </si>
-  <si>
-    <t>Sự cân bằng giữa công việc và cuộc sống</t>
+    <t>Gia đình và người thân</t>
+  </si>
+  <si>
+    <t>Bạn bè và tình bạn</t>
+  </si>
+  <si>
+    <t>Trường học và lớp học</t>
+  </si>
+  <si>
+    <t>Giáo viên và bài học yêu thích</t>
+  </si>
+  <si>
+    <t>Động vật nuôi trong nhà</t>
+  </si>
+  <si>
+    <t>Động vật hoang dã và sở thú</t>
+  </si>
+  <si>
+    <t>Các loại trái cây và rau củ</t>
+  </si>
+  <si>
+    <t>Món ăn yêu thích</t>
+  </si>
+  <si>
+    <t>Kẹo, bánh và đồ ăn vặt</t>
+  </si>
+  <si>
+    <t>Thể thao và trò chơi vận động</t>
+  </si>
+  <si>
+    <t>Trò chơi dân gian</t>
+  </si>
+  <si>
+    <t>Trò chơi điện tử và đồ chơi yêu thích</t>
+  </si>
+  <si>
+    <t>Truyện cổ tích và nhân vật thần tiên</t>
+  </si>
+  <si>
+    <t>Phim hoạt hình yêu thích</t>
+  </si>
+  <si>
+    <t>Siêu anh hùng và nhân vật hoạt hình</t>
+  </si>
+  <si>
+    <t>Công chúa, hoàng tử và phép thuật</t>
+  </si>
+  <si>
+    <t>Các mùa trong năm</t>
+  </si>
+  <si>
+    <t>Thời tiết và thiên nhiên</t>
+  </si>
+  <si>
+    <t>Đại dương và sinh vật biển</t>
+  </si>
+  <si>
+    <t>Không gian và vũ trụ</t>
+  </si>
+  <si>
+    <t>Nghề nghiệp mơ ước</t>
+  </si>
+  <si>
+    <t>Siêu xe, máy bay và tàu hỏa</t>
+  </si>
+  <si>
+    <t>Ngôi nhà và phòng riêng</t>
+  </si>
+  <si>
+    <t>Lễ hội và ngày đặc biệt</t>
+  </si>
+  <si>
+    <t>Âm nhạc và bài hát thiếu nhi</t>
+  </si>
+  <si>
+    <t>Sáng tạo thủ công và vẽ tranh</t>
+  </si>
+  <si>
+    <t>Học nhảy và múa</t>
+  </si>
+  <si>
+    <t>Học đàn và chơi nhạc cụ</t>
+  </si>
+  <si>
+    <t>Du lịch và khám phá thế giới</t>
+  </si>
+  <si>
+    <t>Công viên giải trí và sở thú</t>
+  </si>
+  <si>
+    <t>Khoa học vui và thí nghiệm nhỏ</t>
+  </si>
+  <si>
+    <t>Máy móc và phát minh</t>
+  </si>
+  <si>
+    <t>Robot và trí tuệ nhân tạo</t>
+  </si>
+  <si>
+    <t>Những giấc mơ và tưởng tượng</t>
+  </si>
+  <si>
+    <t>Chăm sóc sức khỏe và vệ sinh cá nhân</t>
+  </si>
+  <si>
+    <t>Giấc ngủ và những giấc mơ đẹp</t>
+  </si>
+  <si>
+    <t>Siêu năng lực và phép thuật</t>
+  </si>
+  <si>
+    <t>Thám hiểm và truy tìm kho báu</t>
+  </si>
+  <si>
+    <t>Công viên nước và hồ bơi</t>
+  </si>
+  <si>
+    <t>Những câu chuyện hài hước và thú vị</t>
+  </si>
+  <si>
+    <t>Động vật thời tiền sử (khủng long)</t>
+  </si>
+  <si>
+    <t>Những nơi kỳ lạ trên thế giới</t>
+  </si>
+  <si>
+    <t>Máy bay, tên lửa và du hành vũ trụ</t>
+  </si>
+  <si>
+    <t>Bảo tàng và di tích lịch sử</t>
+  </si>
+  <si>
+    <t>Lập trình và công nghệ cho trẻ em</t>
+  </si>
+  <si>
+    <t>Cây cối, hoa lá và thiên nhiên</t>
+  </si>
+  <si>
+    <t>Thế giới dưới nước và những điều kỳ thú</t>
+  </si>
+  <si>
+    <t>Những người hùng trong đời thực (bác sĩ, lính cứu hỏa, cảnh sát)</t>
+  </si>
+  <si>
+    <t>Cuộc sống của các loài động vật trong rừng</t>
+  </si>
+  <si>
+    <t>Những phát minh thú vị trong cuộc sống</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+**Prompt:**  
+Hãy đóng vai Pika, một robot đáng yêu và hiếu kỳ chuyên dạy tiếng Việt cho trẻ em 5 tuổi người Việt Nam. Trình độ tiếng Việt của trẻ ở mức dưới A1. Hãy tạo ra 50 câu nói của Pika theo đúng phong cách vui nhộn, đáng yêu, mang đậm chất Gen Z nhưng vẫn phù hợp với trẻ nhỏ.  
+**Yêu cầu:**  
+- Ngôn ngữ tự nhiên, kết hợp giữa từ ngữ của trẻ em và phong cách nói Gen Z (ví dụ: "tớ - cậu").  
+- Giọng điệu vui tươi, hào hứng, khuyến khích trẻ tiếp tục cuộc hội thoại.  
+- Nội dung xoay quanh những điều mà trẻ 5-10 tuổi quan tâm.  
+- Mỗi câu thuộc một trong các nhóm sau (MECE):  
+### **1. Câu hỏi khơi gợi hứng thú** (Gợi trí tò mò, kích thích suy nghĩ)  
+### **2. Câu hướng dẫn, giải thích** (Dạy từ vựng, cấu trúc câu)  
+### **3. Câu khen ngợi, động viên** (Khuyến khích sự tự tin, thúc đẩy hứng thú)  
+### **4. Câu giả tưởng, sáng tạo** (Mở rộng trí tưởng tượng, kích thích sáng tạo)  
+### **5. Câu thử thách, đố vui** (Gây hứng thú, khuyến khích tư duy)  
+### **6. Câu nhắc nhở nhẹ nhàng** (Giúp trẻ nhớ lại bài học một cách tự nhiên)  
+### **7. Câu tường thuật, mô tả** (Miêu tả sự vật, hiện tượng để trẻ học từ)  
+### **8. Câu liên kết với trải nghiệm cá nhân** (Tạo sự kết nối với sở thích, thói quen của trẻ)  
+### **9. Câu kể chuyện, dẫn dắt vào bối cảnh** (Tạo tình huống để học từ mới)  
+### **10. Câu khuyến khích đối thoại, phản hồi** (Kích thích trẻ chủ động nói)  
+**Định dạng đầu ra:**  
+- CHỈ LIST RA CÁC CÂU - (không cần trỏ loại câu)</t>
   </si>
 </sst>
 </file>
@@ -1671,8 +1679,8 @@
   </sheetPr>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="26.4" customHeight="1"/>
@@ -1707,12 +1715,12 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18"/>
       <c r="E2" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F2" s="18"/>
     </row>
@@ -1721,12 +1729,12 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F3" s="18"/>
     </row>
@@ -1735,12 +1743,12 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F4" s="18"/>
     </row>
@@ -1749,12 +1757,12 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F5" s="18"/>
     </row>
@@ -1763,12 +1771,12 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
       <c r="E6" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F6" s="18"/>
     </row>
@@ -1777,12 +1785,12 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F7" s="18"/>
     </row>
@@ -1791,12 +1799,12 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F8" s="18"/>
     </row>
@@ -1805,12 +1813,12 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F9" s="18"/>
     </row>
@@ -1819,12 +1827,12 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F10" s="18"/>
     </row>
@@ -1833,12 +1841,12 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F11" s="18"/>
     </row>
@@ -1847,12 +1855,12 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F12" s="18"/>
     </row>
@@ -1861,12 +1869,12 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F13" s="18"/>
     </row>
@@ -1875,12 +1883,12 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F14" s="18"/>
     </row>
@@ -1889,12 +1897,12 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F15" s="18"/>
     </row>
@@ -1903,12 +1911,12 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F16" s="18"/>
     </row>
@@ -1917,12 +1925,12 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F17" s="18"/>
     </row>
@@ -1931,12 +1939,12 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F18" s="18"/>
     </row>
@@ -1945,12 +1953,12 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F19" s="18"/>
     </row>
@@ -1959,12 +1967,12 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F20" s="18"/>
     </row>
@@ -1973,12 +1981,12 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F21" s="18"/>
     </row>
@@ -1987,12 +1995,12 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F22" s="18"/>
     </row>
@@ -2001,12 +2009,12 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F23" s="18"/>
     </row>
@@ -2015,12 +2023,12 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F24" s="18"/>
     </row>
@@ -2029,12 +2037,12 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F25" s="18"/>
     </row>
@@ -2043,12 +2051,12 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F26" s="18"/>
     </row>
@@ -2057,12 +2065,12 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F27" s="18"/>
     </row>
@@ -2071,12 +2079,12 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F28" s="18"/>
     </row>
@@ -2085,12 +2093,12 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="F29" s="18"/>
     </row>
@@ -2100,10 +2108,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="26.4" customHeight="1" thickBot="1">
@@ -2112,10 +2120,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="26.4" customHeight="1" thickBot="1">
@@ -2124,10 +2132,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="26.4" customHeight="1" thickBot="1">
@@ -2136,10 +2144,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="26.4" customHeight="1" thickBot="1">
@@ -2148,10 +2156,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="26.4" customHeight="1" thickBot="1">
@@ -2160,10 +2168,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="26.4" customHeight="1" thickBot="1">
@@ -2172,10 +2180,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="26.4" customHeight="1" thickBot="1">
@@ -2184,10 +2192,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="26.4" customHeight="1" thickBot="1">
@@ -2196,10 +2204,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="26.4" customHeight="1" thickBot="1">
@@ -2208,10 +2216,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="26.4" customHeight="1" thickBot="1">
@@ -2220,10 +2228,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="26.4" customHeight="1" thickBot="1">
@@ -2232,10 +2240,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="26.4" customHeight="1" thickBot="1">
@@ -2244,10 +2252,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="26.4" customHeight="1" thickBot="1">
@@ -2256,10 +2264,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="26.4" customHeight="1" thickBot="1">
@@ -2268,10 +2276,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="26.4" customHeight="1" thickBot="1">
@@ -2280,10 +2288,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="26.4" customHeight="1" thickBot="1">
@@ -2292,10 +2300,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="26.4" customHeight="1" thickBot="1">
@@ -2304,10 +2312,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="26.4" customHeight="1" thickBot="1">
@@ -2316,10 +2324,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="26.4" customHeight="1" thickBot="1">
@@ -2328,10 +2336,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="26.4" customHeight="1" thickBot="1">
@@ -2340,10 +2348,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="26.4" customHeight="1" thickBot="1">
@@ -2352,10 +2360,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>345</v>
+      </c>
+      <c r="E51" s="18" t="s">
         <v>346</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>296</v>
       </c>
     </row>
   </sheetData>
